--- a/Coefs.xlsx
+++ b/Coefs.xlsx
@@ -509,19 +509,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.152</v>
+        <v>3.154</v>
       </c>
       <c r="H2" t="n">
         <v>3.205</v>
       </c>
       <c r="I2" t="n">
-        <v>24.016</v>
+        <v>24.032</v>
       </c>
       <c r="J2" t="n">
-        <v>23.392</v>
+        <v>23.43</v>
       </c>
       <c r="K2" t="n">
-        <v>24.657</v>
+        <v>24.649</v>
       </c>
     </row>
     <row r="3">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.176</v>
+        <v>0.178</v>
       </c>
       <c r="E4" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -590,16 +590,16 @@
         <v>0.098</v>
       </c>
       <c r="H4" t="n">
-        <v>0.253</v>
+        <v>0.258</v>
       </c>
       <c r="I4" t="n">
-        <v>1.192</v>
+        <v>1.195</v>
       </c>
       <c r="J4" t="n">
         <v>1.103</v>
       </c>
       <c r="K4" t="n">
-        <v>1.288</v>
+        <v>1.295</v>
       </c>
     </row>
     <row r="5">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.109</v>
+        <v>-0.046</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0069</v>
+        <v>0.3025</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.189</v>
+        <v>-0.134</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03</v>
+        <v>0.042</v>
       </c>
       <c r="I6" t="n">
-        <v>0.896</v>
+        <v>0.955</v>
       </c>
       <c r="J6" t="n">
-        <v>0.828</v>
+        <v>0.874</v>
       </c>
       <c r="K6" t="n">
-        <v>0.97</v>
+        <v>1.043</v>
       </c>
     </row>
     <row r="7">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="E7" t="n">
         <v>0.002</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="I7" t="n">
-        <v>1.01</v>
+        <v>1.003</v>
       </c>
       <c r="J7" t="n">
-        <v>1.007</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1.014</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="8">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.435</v>
+        <v>2.436</v>
       </c>
       <c r="E8" t="n">
         <v>0.042</v>
@@ -746,16 +746,16 @@
         <v>2.353</v>
       </c>
       <c r="H8" t="n">
-        <v>2.517</v>
+        <v>2.519</v>
       </c>
       <c r="I8" t="n">
-        <v>11.421</v>
+        <v>11.431</v>
       </c>
       <c r="J8" t="n">
-        <v>10.522</v>
+        <v>10.521</v>
       </c>
       <c r="K8" t="n">
-        <v>12.397</v>
+        <v>12.421</v>
       </c>
     </row>
     <row r="9">
@@ -812,28 +812,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="E10" t="n">
         <v>0.045</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0065</v>
+        <v>0.0069</v>
       </c>
       <c r="G10" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="H10" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="I10" t="n">
         <v>1.129</v>
       </c>
       <c r="J10" t="n">
-        <v>1.035</v>
+        <v>1.034</v>
       </c>
       <c r="K10" t="n">
-        <v>1.232</v>
+        <v>1.233</v>
       </c>
     </row>
     <row r="11">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.351</v>
+        <v>-0.316</v>
       </c>
       <c r="E12" t="n">
-        <v>0.056</v>
+        <v>0.054</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.46</v>
+        <v>-0.423</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.241</v>
+        <v>-0.209</v>
       </c>
       <c r="I12" t="n">
-        <v>0.704</v>
+        <v>0.729</v>
       </c>
       <c r="J12" t="n">
-        <v>0.631</v>
+        <v>0.655</v>
       </c>
       <c r="K12" t="n">
-        <v>0.786</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01</v>
+        <v>-0.013</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.003</v>
+        <v>-0.007</v>
       </c>
       <c r="I13" t="n">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="J13" t="n">
-        <v>0.99</v>
+        <v>0.987</v>
       </c>
       <c r="K13" t="n">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="14">
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.605</v>
+        <v>1.606</v>
       </c>
       <c r="H14" t="n">
-        <v>1.754</v>
+        <v>1.755</v>
       </c>
       <c r="I14" t="n">
-        <v>5.364</v>
+        <v>5.366</v>
       </c>
       <c r="J14" t="n">
-        <v>4.978</v>
+        <v>4.981</v>
       </c>
       <c r="K14" t="n">
-        <v>5.78</v>
+        <v>5.781</v>
       </c>
     </row>
     <row r="15">
@@ -1046,28 +1046,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.035</v>
+        <v>-0.036</v>
       </c>
       <c r="E16" t="n">
         <v>0.094</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7126</v>
+        <v>0.7030999999999999</v>
       </c>
       <c r="G16" t="n">
         <v>-0.219</v>
       </c>
       <c r="H16" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="I16" t="n">
-        <v>0.966</v>
+        <v>0.965</v>
       </c>
       <c r="J16" t="n">
         <v>0.803</v>
       </c>
       <c r="K16" t="n">
-        <v>1.161</v>
+        <v>1.159</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         <v>0.005</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0437</v>
+        <v>0.0443</v>
       </c>
       <c r="G17" t="n">
         <v>-0.021</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.989</v>
+        <v>0.99</v>
       </c>
       <c r="J17" t="n">
         <v>0.979</v>
@@ -1124,28 +1124,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.258</v>
+        <v>-0.257</v>
       </c>
       <c r="E18" t="n">
-        <v>0.057</v>
+        <v>0.053</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.37</v>
+        <v>-0.361</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.146</v>
+        <v>-0.153</v>
       </c>
       <c r="I18" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="K18" t="n">
-        <v>0.864</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="19">
@@ -1166,25 +1166,25 @@
         <v>-0.001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5803</v>
+        <v>0.4099</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I19" t="n">
         <v>0.999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
       <c r="K19" t="n">
-        <v>1.003</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="20">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.721</v>
+        <v>1.72</v>
       </c>
       <c r="E20" t="n">
         <v>0.022</v>
@@ -1211,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.678</v>
+        <v>1.677</v>
       </c>
       <c r="H20" t="n">
         <v>1.763</v>
       </c>
       <c r="I20" t="n">
-        <v>5.588</v>
+        <v>5.586</v>
       </c>
       <c r="J20" t="n">
-        <v>5.357</v>
+        <v>5.352</v>
       </c>
       <c r="K20" t="n">
-        <v>5.828</v>
+        <v>5.829</v>
       </c>
     </row>
     <row r="21">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.283</v>
+        <v>0.281</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1292,16 +1292,16 @@
         <v>0.185</v>
       </c>
       <c r="H22" t="n">
-        <v>0.381</v>
+        <v>0.377</v>
       </c>
       <c r="I22" t="n">
-        <v>1.327</v>
+        <v>1.324</v>
       </c>
       <c r="J22" t="n">
-        <v>1.204</v>
+        <v>1.203</v>
       </c>
       <c r="K22" t="n">
-        <v>1.463</v>
+        <v>1.458</v>
       </c>
     </row>
     <row r="23">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.091</v>
+        <v>-0.062</v>
       </c>
       <c r="E24" t="n">
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
       <c r="F24" t="n">
-        <v>0.104</v>
+        <v>0.2753</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.201</v>
+        <v>-0.173</v>
       </c>
       <c r="H24" t="n">
-        <v>0.019</v>
+        <v>0.049</v>
       </c>
       <c r="I24" t="n">
-        <v>0.913</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.841</v>
       </c>
       <c r="K24" t="n">
-        <v>1.019</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="25">
@@ -1397,28 +1397,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="E25" t="n">
         <v>0.002</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.0002</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.006</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="I25" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.997</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.994</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1436,28 +1436,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.365</v>
+        <v>2.367</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.286</v>
+        <v>2.287</v>
       </c>
       <c r="H26" t="n">
-        <v>2.444</v>
+        <v>2.447</v>
       </c>
       <c r="I26" t="n">
-        <v>10.641</v>
+        <v>10.662</v>
       </c>
       <c r="J26" t="n">
-        <v>9.832000000000001</v>
+        <v>9.840999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>11.517</v>
+        <v>11.551</v>
       </c>
     </row>
     <row r="27">
@@ -1514,28 +1514,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.046</v>
+        <v>-0.044</v>
       </c>
       <c r="E28" t="n">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5319</v>
+        <v>0.5624</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.191</v>
+        <v>-0.192</v>
       </c>
       <c r="H28" t="n">
-        <v>0.099</v>
+        <v>0.104</v>
       </c>
       <c r="I28" t="n">
-        <v>0.955</v>
+        <v>0.957</v>
       </c>
       <c r="J28" t="n">
         <v>0.826</v>
       </c>
       <c r="K28" t="n">
-        <v>1.104</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="29">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.53</v>
+        <v>-0.492</v>
       </c>
       <c r="E30" t="n">
-        <v>0.074</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.676</v>
+        <v>-0.632</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.384</v>
+        <v>-0.352</v>
       </c>
       <c r="I30" t="n">
-        <v>0.589</v>
+        <v>0.611</v>
       </c>
       <c r="J30" t="n">
-        <v>0.509</v>
+        <v>0.531</v>
       </c>
       <c r="K30" t="n">
-        <v>0.681</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="31">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.012</v>
+        <v>-0.016</v>
       </c>
       <c r="E31" t="n">
         <v>0.002</v>
@@ -1640,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.015</v>
+        <v>-0.019</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.008</v>
+        <v>-0.013</v>
       </c>
       <c r="I31" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.988</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.992</v>
       </c>
     </row>
     <row r="32">
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1.349</v>
+        <v>-1.347</v>
       </c>
       <c r="E32" t="n">
         <v>0.064</v>
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.475</v>
+        <v>-1.473</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.223</v>
+        <v>-1.221</v>
       </c>
       <c r="I32" t="n">
         <v>0.26</v>
@@ -1691,7 +1691,7 @@
         <v>0.229</v>
       </c>
       <c r="K32" t="n">
-        <v>0.294</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="33">
@@ -1748,28 +1748,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.372</v>
+        <v>0.376</v>
       </c>
       <c r="E34" t="n">
-        <v>0.094</v>
+        <v>0.097</v>
       </c>
       <c r="F34" t="n">
         <v>0.0001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
       <c r="H34" t="n">
-        <v>0.555</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>1.45</v>
+        <v>1.457</v>
       </c>
       <c r="J34" t="n">
-        <v>1.207</v>
+        <v>1.206</v>
       </c>
       <c r="K34" t="n">
-        <v>1.743</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="35">
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.058</v>
+        <v>-0.059</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.037</v>
+        <v>-0.036</v>
       </c>
       <c r="I35" t="n">
-        <v>0.954</v>
+        <v>0.953</v>
       </c>
       <c r="J35" t="n">
         <v>0.9429999999999999</v>
@@ -1826,28 +1826,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.746</v>
+        <v>-0.654</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.912</v>
+        <v>-0.825</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.579</v>
+        <v>-0.483</v>
       </c>
       <c r="I36" t="n">
-        <v>0.474</v>
+        <v>0.52</v>
       </c>
       <c r="J36" t="n">
-        <v>0.402</v>
+        <v>0.438</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="37">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.017</v>
+        <v>-0.027</v>
       </c>
       <c r="E37" t="n">
         <v>0.002</v>
@@ -1874,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02</v>
+        <v>-0.032</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.014</v>
+        <v>-0.022</v>
       </c>
       <c r="I37" t="n">
-        <v>0.983</v>
+        <v>0.973</v>
       </c>
       <c r="J37" t="n">
-        <v>0.98</v>
+        <v>0.969</v>
       </c>
       <c r="K37" t="n">
-        <v>0.986</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="38">
@@ -1907,16 +1907,16 @@
         <v>-0.338</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.397</v>
+        <v>-0.398</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.28</v>
+        <v>-0.278</v>
       </c>
       <c r="I38" t="n">
         <v>0.713</v>
@@ -1925,7 +1925,7 @@
         <v>0.672</v>
       </c>
       <c r="K38" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="39">
@@ -1982,28 +1982,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.289</v>
+        <v>-0.292</v>
       </c>
       <c r="E40" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.36</v>
+        <v>-0.364</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.218</v>
+        <v>-0.22</v>
       </c>
       <c r="I40" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="J40" t="n">
-        <v>0.698</v>
+        <v>0.695</v>
       </c>
       <c r="K40" t="n">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="41">
@@ -2027,7 +2027,7 @@
         <v>0.003</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2114</v>
+        <v>0.1863</v>
       </c>
       <c r="G41" t="n">
         <v>-0.002</v>
@@ -2060,28 +2060,28 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.202</v>
+        <v>-0.197</v>
       </c>
       <c r="E42" t="n">
-        <v>0.049</v>
+        <v>0.046</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.299</v>
+        <v>-0.286</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.105</v>
+        <v>-0.107</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="J42" t="n">
-        <v>0.742</v>
+        <v>0.751</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="43">
@@ -2099,28 +2099,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="E43" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="H43" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="I43" t="n">
-        <v>1.015</v>
+        <v>1.014</v>
       </c>
       <c r="J43" t="n">
-        <v>1.01</v>
+        <v>1.012</v>
       </c>
       <c r="K43" t="n">
-        <v>1.019</v>
+        <v>1.017</v>
       </c>
     </row>
     <row r="44">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.587</v>
+        <v>-0.586</v>
       </c>
       <c r="H44" t="n">
         <v>-0.452</v>
@@ -2156,7 +2156,7 @@
         <v>0.595</v>
       </c>
       <c r="J44" t="n">
-        <v>0.556</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="K44" t="n">
         <v>0.636</v>
@@ -2216,28 +2216,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-0.819</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.144</v>
+        <v>0.143</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.101</v>
+        <v>-1.096</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.536</v>
+        <v>-0.534</v>
       </c>
       <c r="I46" t="n">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="J46" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="K46" t="n">
-        <v>0.585</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="47">
@@ -2294,28 +2294,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.175</v>
+        <v>-0.137</v>
       </c>
       <c r="E48" t="n">
-        <v>0.066</v>
+        <v>0.064</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0076</v>
+        <v>0.031</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.304</v>
+        <v>-0.261</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.047</v>
+        <v>-0.012</v>
       </c>
       <c r="I48" t="n">
-        <v>0.839</v>
+        <v>0.872</v>
       </c>
       <c r="J48" t="n">
-        <v>0.738</v>
+        <v>0.77</v>
       </c>
       <c r="K48" t="n">
-        <v>0.955</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="49">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="E49" t="n">
         <v>0.002</v>
@@ -2342,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="H49" t="n">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="I49" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.011</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.016</v>
       </c>
     </row>
     <row r="50">
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.377</v>
+        <v>-0.376</v>
       </c>
       <c r="H52" t="n">
         <v>-0.204</v>
@@ -2492,10 +2492,10 @@
         <v>0.002</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="F53" t="n">
-        <v>0.519</v>
+        <v>0.5193</v>
       </c>
       <c r="G53" t="n">
         <v>-0.005</v>
@@ -2528,28 +2528,28 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.331</v>
+        <v>-0.29</v>
       </c>
       <c r="E54" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.428</v>
+        <v>-0.388</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.234</v>
+        <v>-0.192</v>
       </c>
       <c r="I54" t="n">
-        <v>0.718</v>
+        <v>0.748</v>
       </c>
       <c r="J54" t="n">
-        <v>0.652</v>
+        <v>0.678</v>
       </c>
       <c r="K54" t="n">
-        <v>0.791</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55">
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="E55" t="n">
         <v>0.001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.43</v>
+        <v>0.0196</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="H55" t="n">
-        <v>0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="I55" t="n">
-        <v>1.001</v>
+        <v>0.997</v>
       </c>
       <c r="J55" t="n">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="K55" t="n">
-        <v>1.004</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="56">
@@ -2606,19 +2606,19 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-2.674</v>
+        <v>-2.678</v>
       </c>
       <c r="E56" t="n">
-        <v>0.052</v>
+        <v>0.049</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.776</v>
+        <v>-2.773</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.573</v>
+        <v>-2.582</v>
       </c>
       <c r="I56" t="n">
         <v>0.06900000000000001</v>
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="E57" t="n">
         <v>0.001</v>
@@ -2666,7 +2666,7 @@
         <v>1.018</v>
       </c>
       <c r="K57" t="n">
-        <v>1.024</v>
+        <v>1.023</v>
       </c>
     </row>
     <row r="58">
@@ -2684,28 +2684,28 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="E58" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0684</v>
+        <v>0.0788</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="H58" t="n">
-        <v>0.144</v>
+        <v>0.132</v>
       </c>
       <c r="I58" t="n">
-        <v>1.072</v>
+        <v>1.065</v>
       </c>
       <c r="J58" t="n">
-        <v>0.995</v>
+        <v>0.993</v>
       </c>
       <c r="K58" t="n">
-        <v>1.155</v>
+        <v>1.141</v>
       </c>
     </row>
     <row r="59">
@@ -2723,16 +2723,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.017</v>
+        <v>-0.016</v>
       </c>
       <c r="E59" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="H59" t="n">
         <v>-0.012</v>
@@ -2762,28 +2762,28 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.431</v>
+        <v>-0.459</v>
       </c>
       <c r="E60" t="n">
-        <v>0.076</v>
+        <v>0.065</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.58</v>
+        <v>-0.586</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.282</v>
+        <v>-0.332</v>
       </c>
       <c r="I60" t="n">
-        <v>0.65</v>
+        <v>0.632</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>0.754</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="61">
@@ -2801,25 +2801,25 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0027</v>
+        <v>0.0009</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.014</v>
+        <v>-0.01</v>
       </c>
       <c r="H61" t="n">
         <v>-0.003</v>
       </c>
       <c r="I61" t="n">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
       <c r="J61" t="n">
-        <v>0.987</v>
+        <v>0.99</v>
       </c>
       <c r="K61" t="n">
         <v>0.997</v>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-0.768</v>
+        <v>-0.769</v>
       </c>
       <c r="E62" t="n">
         <v>0.02</v>
@@ -2852,7 +2852,7 @@
         <v>-0.8080000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.728</v>
+        <v>-0.729</v>
       </c>
       <c r="I62" t="n">
         <v>0.464</v>
@@ -2861,7 +2861,7 @@
         <v>0.446</v>
       </c>
       <c r="K62" t="n">
-        <v>0.483</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="63">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H63" t="n">
         <v>0.012</v>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="E64" t="n">
         <v>0.032</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.319</v>
+        <v>0.317</v>
       </c>
       <c r="H64" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="I64" t="n">
-        <v>1.464</v>
+        <v>1.463</v>
       </c>
       <c r="J64" t="n">
-        <v>1.375</v>
+        <v>1.374</v>
       </c>
       <c r="K64" t="n">
-        <v>1.558</v>
+        <v>1.557</v>
       </c>
     </row>
     <row r="65">
@@ -2996,28 +2996,28 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.37</v>
+        <v>-0.351</v>
       </c>
       <c r="E66" t="n">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.434</v>
+        <v>-0.414</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.306</v>
+        <v>-0.287</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.704</v>
       </c>
       <c r="J66" t="n">
-        <v>0.648</v>
+        <v>0.661</v>
       </c>
       <c r="K66" t="n">
-        <v>0.737</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="67">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.011</v>
       </c>
       <c r="E67" t="n">
         <v>0.001</v>
@@ -3044,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.006</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="I67" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="K67" t="n">
         <v>0.991</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.994</v>
       </c>
     </row>
     <row r="68">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.298</v>
+        <v>1.299</v>
       </c>
       <c r="E68" t="n">
         <v>0.023</v>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.253</v>
+        <v>1.254</v>
       </c>
       <c r="H68" t="n">
         <v>1.344</v>
       </c>
       <c r="I68" t="n">
-        <v>3.663</v>
+        <v>3.665</v>
       </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>3.503</v>
       </c>
       <c r="K68" t="n">
         <v>3.833</v>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.243</v>
+        <v>0.244</v>
       </c>
       <c r="E70" t="n">
         <v>0.048</v>
@@ -3164,16 +3164,16 @@
         <v>0.149</v>
       </c>
       <c r="H70" t="n">
-        <v>0.336</v>
+        <v>0.339</v>
       </c>
       <c r="I70" t="n">
-        <v>1.275</v>
+        <v>1.276</v>
       </c>
       <c r="J70" t="n">
-        <v>1.161</v>
+        <v>1.16</v>
       </c>
       <c r="K70" t="n">
-        <v>1.4</v>
+        <v>1.403</v>
       </c>
     </row>
     <row r="71">
@@ -3209,7 +3209,7 @@
         <v>0.981</v>
       </c>
       <c r="J71" t="n">
-        <v>0.976</v>
+        <v>0.975</v>
       </c>
       <c r="K71" t="n">
         <v>0.987</v>
@@ -3230,28 +3230,28 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.169</v>
+        <v>-0.119</v>
       </c>
       <c r="E72" t="n">
-        <v>0.037</v>
+        <v>0.041</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.242</v>
+        <v>-0.2</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.096</v>
+        <v>-0.039</v>
       </c>
       <c r="I72" t="n">
-        <v>0.845</v>
+        <v>0.888</v>
       </c>
       <c r="J72" t="n">
-        <v>0.785</v>
+        <v>0.819</v>
       </c>
       <c r="K72" t="n">
-        <v>0.908</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="73">
@@ -3269,28 +3269,28 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.004</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0147</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.007</v>
+        <v>-0.012</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="I73" t="n">
-        <v>0.996</v>
+        <v>0.991</v>
       </c>
       <c r="J73" t="n">
-        <v>0.993</v>
+        <v>0.988</v>
       </c>
       <c r="K73" t="n">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="74">
@@ -3311,25 +3311,25 @@
         <v>1.459</v>
       </c>
       <c r="E74" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.43</v>
+        <v>1.431</v>
       </c>
       <c r="H74" t="n">
         <v>1.487</v>
       </c>
       <c r="I74" t="n">
-        <v>4.3</v>
+        <v>4.302</v>
       </c>
       <c r="J74" t="n">
-        <v>4.179</v>
+        <v>4.184</v>
       </c>
       <c r="K74" t="n">
-        <v>4.424</v>
+        <v>4.423</v>
       </c>
     </row>
     <row r="75">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.208</v>
+        <v>0.209</v>
       </c>
       <c r="E76" t="n">
         <v>0.05</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="H76" t="n">
-        <v>0.305</v>
+        <v>0.308</v>
       </c>
       <c r="I76" t="n">
-        <v>1.231</v>
+        <v>1.232</v>
       </c>
       <c r="J76" t="n">
-        <v>1.117</v>
+        <v>1.116</v>
       </c>
       <c r="K76" t="n">
-        <v>1.357</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="77">
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
       <c r="E77" t="n">
         <v>0.003</v>
@@ -3464,28 +3464,28 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.27</v>
+        <v>-0.239</v>
       </c>
       <c r="E78" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.327</v>
+        <v>-0.298</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.213</v>
+        <v>-0.181</v>
       </c>
       <c r="I78" t="n">
-        <v>0.763</v>
+        <v>0.787</v>
       </c>
       <c r="J78" t="n">
-        <v>0.721</v>
+        <v>0.742</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="79">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="E79" t="n">
         <v>0.001</v>
@@ -3512,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="H79" t="n">
         <v>-0.007</v>
       </c>
-      <c r="H79" t="n">
-        <v>-0.003</v>
-      </c>
       <c r="I79" t="n">
-        <v>0.995</v>
+        <v>0.992</v>
       </c>
       <c r="J79" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.993</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.997</v>
       </c>
     </row>
     <row r="80">
@@ -3554,7 +3554,7 @@
         <v>-0.22</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.068</v>
+        <v>-0.067</v>
       </c>
       <c r="I80" t="n">
         <v>0.866</v>
@@ -3620,28 +3620,28 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="E82" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1336</v>
+        <v>0.1355</v>
       </c>
       <c r="G82" t="n">
         <v>-0.028</v>
       </c>
       <c r="H82" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="I82" t="n">
-        <v>1.095</v>
+        <v>1.094</v>
       </c>
       <c r="J82" t="n">
         <v>0.972</v>
       </c>
       <c r="K82" t="n">
-        <v>1.234</v>
+        <v>1.232</v>
       </c>
     </row>
     <row r="83">
@@ -3698,28 +3698,28 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.446</v>
+        <v>-0.407</v>
       </c>
       <c r="E84" t="n">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.572</v>
+        <v>-0.535</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.32</v>
+        <v>-0.279</v>
       </c>
       <c r="I84" t="n">
-        <v>0.64</v>
+        <v>0.666</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.586</v>
       </c>
       <c r="K84" t="n">
-        <v>0.726</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="85">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.005</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E85" t="n">
         <v>0.002</v>
       </c>
       <c r="F85" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.012</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="I85" t="n">
-        <v>0.995</v>
+        <v>0.991</v>
       </c>
       <c r="J85" t="n">
-        <v>0.992</v>
+        <v>0.988</v>
       </c>
       <c r="K85" t="n">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="86">
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.531</v>
+        <v>-0.53</v>
       </c>
       <c r="H86" t="n">
         <v>-0.472</v>
@@ -3794,7 +3794,7 @@
         <v>0.606</v>
       </c>
       <c r="J86" t="n">
-        <v>0.588</v>
+        <v>0.589</v>
       </c>
       <c r="K86" t="n">
         <v>0.624</v>
@@ -3854,10 +3854,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.155</v>
+        <v>0.156</v>
       </c>
       <c r="E88" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0.098</v>
       </c>
       <c r="H88" t="n">
-        <v>0.212</v>
+        <v>0.214</v>
       </c>
       <c r="I88" t="n">
-        <v>1.168</v>
+        <v>1.169</v>
       </c>
       <c r="J88" t="n">
         <v>1.103</v>
       </c>
       <c r="K88" t="n">
-        <v>1.236</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="89">
@@ -3911,7 +3911,7 @@
         <v>0.983</v>
       </c>
       <c r="J89" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="K89" t="n">
         <v>0.987</v>
@@ -3932,28 +3932,28 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.225</v>
+        <v>-0.188</v>
       </c>
       <c r="E90" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.292</v>
+        <v>-0.259</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.158</v>
+        <v>-0.118</v>
       </c>
       <c r="I90" t="n">
-        <v>0.798</v>
+        <v>0.828</v>
       </c>
       <c r="J90" t="n">
-        <v>0.747</v>
+        <v>0.772</v>
       </c>
       <c r="K90" t="n">
-        <v>0.854</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="91">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="E91" t="n">
         <v>0.001</v>
@@ -3980,19 +3980,19 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.008</v>
+        <v>-0.012</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.003</v>
+        <v>-0.007</v>
       </c>
       <c r="I91" t="n">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="J91" t="n">
-        <v>0.992</v>
+        <v>0.988</v>
       </c>
       <c r="K91" t="n">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="92">
@@ -4019,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2.431</v>
+        <v>2.432</v>
       </c>
       <c r="H92" t="n">
         <v>2.494</v>
       </c>
       <c r="I92" t="n">
-        <v>11.734</v>
+        <v>11.739</v>
       </c>
       <c r="J92" t="n">
-        <v>11.374</v>
+        <v>11.378</v>
       </c>
       <c r="K92" t="n">
-        <v>12.106</v>
+        <v>12.112</v>
       </c>
     </row>
     <row r="93">
@@ -4088,28 +4088,28 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="E94" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="G94" t="n">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="H94" t="n">
-        <v>0.244</v>
+        <v>0.246</v>
       </c>
       <c r="I94" t="n">
-        <v>1.175</v>
+        <v>1.176</v>
       </c>
       <c r="J94" t="n">
-        <v>1.082</v>
+        <v>1.081</v>
       </c>
       <c r="K94" t="n">
-        <v>1.276</v>
+        <v>1.278</v>
       </c>
     </row>
     <row r="95">
@@ -4148,7 +4148,7 @@
         <v>0.977</v>
       </c>
       <c r="K95" t="n">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="96">
@@ -4166,28 +4166,28 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-0.224</v>
+        <v>-0.186</v>
       </c>
       <c r="E96" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.28</v>
+        <v>-0.247</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.169</v>
+        <v>-0.124</v>
       </c>
       <c r="I96" t="n">
-        <v>0.799</v>
+        <v>0.83</v>
       </c>
       <c r="J96" t="n">
-        <v>0.756</v>
+        <v>0.781</v>
       </c>
       <c r="K96" t="n">
-        <v>0.845</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="97">
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E97" t="n">
         <v>0.001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2871</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="H97" t="n">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="I97" t="n">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="J97" t="n">
-        <v>0.996</v>
+        <v>0.992</v>
       </c>
       <c r="K97" t="n">
-        <v>1.001</v>
+        <v>0.997</v>
       </c>
     </row>
   </sheetData>

--- a/Coefs.xlsx
+++ b/Coefs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,28 +500,28 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>3.207</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.179</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.154</v>
-      </c>
       <c r="H2" t="n">
-        <v>3.205</v>
+        <v>3.235</v>
       </c>
       <c r="I2" t="n">
-        <v>24.032</v>
+        <v>24.705</v>
       </c>
       <c r="J2" t="n">
-        <v>23.43</v>
+        <v>24.025</v>
       </c>
       <c r="K2" t="n">
-        <v>24.649</v>
+        <v>25.403</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="G3" t="n">
         <v>0.001</v>
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.178</v>
+        <v>0.181</v>
       </c>
       <c r="E4" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.098</v>
+        <v>0.104</v>
       </c>
       <c r="H4" t="n">
-        <v>0.258</v>
+        <v>0.259</v>
       </c>
       <c r="I4" t="n">
-        <v>1.195</v>
+        <v>1.199</v>
       </c>
       <c r="J4" t="n">
-        <v>1.103</v>
+        <v>1.109</v>
       </c>
       <c r="K4" t="n">
         <v>1.295</v>
@@ -632,7 +632,7 @@
         <v>-0.007</v>
       </c>
       <c r="I5" t="n">
-        <v>0.987</v>
+        <v>0.988</v>
       </c>
       <c r="J5" t="n">
         <v>0.982</v>
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.046</v>
+        <v>-0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3025</v>
+        <v>0.0155</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.134</v>
+        <v>-0.181</v>
       </c>
       <c r="H6" t="n">
-        <v>0.042</v>
+        <v>-0.019</v>
       </c>
       <c r="I6" t="n">
-        <v>0.955</v>
+        <v>0.905</v>
       </c>
       <c r="J6" t="n">
-        <v>0.874</v>
+        <v>0.834</v>
       </c>
       <c r="K6" t="n">
-        <v>1.043</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="7">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="E7" t="n">
         <v>0.002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
       <c r="I7" t="n">
-        <v>1.003</v>
+        <v>1.01</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>1.007</v>
       </c>
       <c r="K7" t="n">
-        <v>1.006</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="8">
@@ -734,28 +734,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.436</v>
+        <v>2.465</v>
       </c>
       <c r="E8" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.353</v>
+        <v>2.381</v>
       </c>
       <c r="H8" t="n">
-        <v>2.519</v>
+        <v>2.548</v>
       </c>
       <c r="I8" t="n">
-        <v>11.431</v>
+        <v>11.761</v>
       </c>
       <c r="J8" t="n">
-        <v>10.521</v>
+        <v>10.821</v>
       </c>
       <c r="K8" t="n">
-        <v>12.421</v>
+        <v>12.783</v>
       </c>
     </row>
     <row r="9">
@@ -812,25 +812,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="E10" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0069</v>
+        <v>0.0052</v>
       </c>
       <c r="G10" t="n">
-        <v>0.033</v>
+        <v>0.037</v>
       </c>
       <c r="H10" t="n">
         <v>0.21</v>
       </c>
       <c r="I10" t="n">
-        <v>1.129</v>
+        <v>1.131</v>
       </c>
       <c r="J10" t="n">
-        <v>1.034</v>
+        <v>1.037</v>
       </c>
       <c r="K10" t="n">
         <v>1.233</v>
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.316</v>
+        <v>-0.348</v>
       </c>
       <c r="E12" t="n">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.423</v>
+        <v>-0.459</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.209</v>
+        <v>-0.237</v>
       </c>
       <c r="I12" t="n">
-        <v>0.729</v>
+        <v>0.706</v>
       </c>
       <c r="J12" t="n">
-        <v>0.655</v>
+        <v>0.632</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="13">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="G13" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.013</v>
-      </c>
       <c r="H13" t="n">
-        <v>-0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="I13" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.99</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.987</v>
-      </c>
       <c r="K13" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="14">
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.68</v>
+        <v>1.703</v>
       </c>
       <c r="E14" t="n">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.606</v>
+        <v>1.627</v>
       </c>
       <c r="H14" t="n">
-        <v>1.755</v>
+        <v>1.779</v>
       </c>
       <c r="I14" t="n">
-        <v>5.366</v>
+        <v>5.491</v>
       </c>
       <c r="J14" t="n">
-        <v>4.981</v>
+        <v>5.091</v>
       </c>
       <c r="K14" t="n">
-        <v>5.781</v>
+        <v>5.923</v>
       </c>
     </row>
     <row r="15">
@@ -1028,7 +1028,7 @@
         <v>1.015</v>
       </c>
       <c r="K15" t="n">
-        <v>1.02</v>
+        <v>1.019</v>
       </c>
     </row>
     <row r="16">
@@ -1046,28 +1046,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.036</v>
+        <v>-0.035</v>
       </c>
       <c r="E16" t="n">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7030999999999999</v>
+        <v>0.7108</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.219</v>
+        <v>-0.221</v>
       </c>
       <c r="H16" t="n">
-        <v>0.148</v>
+        <v>0.151</v>
       </c>
       <c r="I16" t="n">
         <v>0.965</v>
       </c>
       <c r="J16" t="n">
-        <v>0.803</v>
+        <v>0.802</v>
       </c>
       <c r="K16" t="n">
-        <v>1.159</v>
+        <v>1.163</v>
       </c>
     </row>
     <row r="17">
@@ -1085,13 +1085,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.011</v>
+        <v>-0.01</v>
       </c>
       <c r="E17" t="n">
         <v>0.005</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0443</v>
+        <v>0.0491</v>
       </c>
       <c r="G17" t="n">
         <v>-0.021</v>
@@ -1124,28 +1124,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.257</v>
+        <v>-0.255</v>
       </c>
       <c r="E18" t="n">
-        <v>0.053</v>
+        <v>0.058</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.361</v>
+        <v>-0.368</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.153</v>
+        <v>-0.141</v>
       </c>
       <c r="I18" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="J18" t="n">
-        <v>0.697</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.858</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="19">
@@ -1166,25 +1166,25 @@
         <v>-0.001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4099</v>
+        <v>0.6711</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="I19" t="n">
         <v>0.999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.996</v>
+        <v>0.995</v>
       </c>
       <c r="K19" t="n">
-        <v>1.001</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="20">
@@ -1202,28 +1202,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.72</v>
+        <v>1.748</v>
       </c>
       <c r="E20" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.677</v>
+        <v>1.706</v>
       </c>
       <c r="H20" t="n">
-        <v>1.763</v>
+        <v>1.79</v>
       </c>
       <c r="I20" t="n">
-        <v>5.586</v>
+        <v>5.745</v>
       </c>
       <c r="J20" t="n">
-        <v>5.352</v>
+        <v>5.509</v>
       </c>
       <c r="K20" t="n">
-        <v>5.829</v>
+        <v>5.991</v>
       </c>
     </row>
     <row r="21">
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="H21" t="n">
         <v>0.021</v>
       </c>
       <c r="I21" t="n">
-        <v>1.02</v>
+        <v>1.019</v>
       </c>
       <c r="J21" t="n">
         <v>1.018</v>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.281</v>
+        <v>0.286</v>
       </c>
       <c r="E22" t="n">
         <v>0.049</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.185</v>
+        <v>0.189</v>
       </c>
       <c r="H22" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="I22" t="n">
-        <v>1.324</v>
+        <v>1.331</v>
       </c>
       <c r="J22" t="n">
-        <v>1.203</v>
+        <v>1.209</v>
       </c>
       <c r="K22" t="n">
-        <v>1.458</v>
+        <v>1.465</v>
       </c>
     </row>
     <row r="23">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.062</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2753</v>
+        <v>0.1338</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.173</v>
+        <v>-0.193</v>
       </c>
       <c r="H24" t="n">
-        <v>0.049</v>
+        <v>0.026</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="J24" t="n">
-        <v>0.841</v>
+        <v>0.824</v>
       </c>
       <c r="K24" t="n">
-        <v>1.05</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="25">
@@ -1397,28 +1397,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="E25" t="n">
         <v>0.002</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0002</v>
+        <v>0.1237</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.006</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="I25" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.994</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.991</v>
-      </c>
       <c r="K25" t="n">
-        <v>0.997</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="26">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.367</v>
+        <v>2.381</v>
       </c>
       <c r="E26" t="n">
         <v>0.041</v>
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.287</v>
+        <v>2.301</v>
       </c>
       <c r="H26" t="n">
-        <v>2.447</v>
+        <v>2.461</v>
       </c>
       <c r="I26" t="n">
-        <v>10.662</v>
+        <v>10.814</v>
       </c>
       <c r="J26" t="n">
-        <v>9.840999999999999</v>
+        <v>9.984</v>
       </c>
       <c r="K26" t="n">
-        <v>11.551</v>
+        <v>11.714</v>
       </c>
     </row>
     <row r="27">
@@ -1514,28 +1514,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.044</v>
+        <v>-0.045</v>
       </c>
       <c r="E28" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5624</v>
+        <v>0.5414</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.192</v>
+        <v>-0.189</v>
       </c>
       <c r="H28" t="n">
-        <v>0.104</v>
+        <v>0.099</v>
       </c>
       <c r="I28" t="n">
-        <v>0.957</v>
+        <v>0.956</v>
       </c>
       <c r="J28" t="n">
-        <v>0.826</v>
+        <v>0.827</v>
       </c>
       <c r="K28" t="n">
-        <v>1.11</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="29">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.492</v>
+        <v>-0.529</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.075</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.632</v>
+        <v>-0.676</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.352</v>
+        <v>-0.383</v>
       </c>
       <c r="I30" t="n">
-        <v>0.611</v>
+        <v>0.589</v>
       </c>
       <c r="J30" t="n">
-        <v>0.531</v>
+        <v>0.509</v>
       </c>
       <c r="K30" t="n">
-        <v>0.704</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.016</v>
+        <v>-0.011</v>
       </c>
       <c r="E31" t="n">
         <v>0.002</v>
@@ -1640,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.019</v>
+        <v>-0.015</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.013</v>
+        <v>-0.008</v>
       </c>
       <c r="I31" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.985</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.982</v>
-      </c>
       <c r="K31" t="n">
-        <v>0.988</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="32">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>F99_F99</t>
+          <t>F99_F99_nao_especificado</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1670,28 +1670,28 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-1.347</v>
+        <v>-2.042</v>
       </c>
       <c r="E32" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.473</v>
+        <v>-2.167</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.221</v>
+        <v>-1.918</v>
       </c>
       <c r="I32" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="J32" t="n">
-        <v>0.229</v>
+        <v>0.115</v>
       </c>
       <c r="K32" t="n">
-        <v>0.295</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="33">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>F99_F99</t>
+          <t>F99_F99_nao_especificado</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>F99_F99</t>
+          <t>F99_F99_nao_especificado</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1748,28 +1748,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.376</v>
+        <v>0.371</v>
       </c>
       <c r="E34" t="n">
-        <v>0.097</v>
+        <v>0.093</v>
       </c>
       <c r="F34" t="n">
         <v>0.0001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.187</v>
+        <v>0.188</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="I34" t="n">
-        <v>1.457</v>
+        <v>1.449</v>
       </c>
       <c r="J34" t="n">
         <v>1.206</v>
       </c>
       <c r="K34" t="n">
-        <v>1.76</v>
+        <v>1.739</v>
       </c>
     </row>
     <row r="35">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>F99_F99</t>
+          <t>F99_F99_nao_especificado</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1796,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.059</v>
+        <v>-0.058</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.036</v>
+        <v>-0.037</v>
       </c>
       <c r="I35" t="n">
-        <v>0.953</v>
+        <v>0.954</v>
       </c>
       <c r="J35" t="n">
         <v>0.9429999999999999</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>F99_F99</t>
+          <t>F99_F99_nao_especificado</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1826,28 +1826,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.654</v>
+        <v>-0.747</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.825</v>
+        <v>-0.91</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.483</v>
+        <v>-0.583</v>
       </c>
       <c r="I36" t="n">
-        <v>0.52</v>
+        <v>0.474</v>
       </c>
       <c r="J36" t="n">
-        <v>0.438</v>
+        <v>0.402</v>
       </c>
       <c r="K36" t="n">
-        <v>0.617</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>F99_F99</t>
+          <t>F99_F99_nao_especificado</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.027</v>
+        <v>-0.017</v>
       </c>
       <c r="E37" t="n">
         <v>0.002</v>
@@ -1874,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.032</v>
+        <v>-0.02</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.022</v>
+        <v>-0.014</v>
       </c>
       <c r="I37" t="n">
-        <v>0.973</v>
+        <v>0.983</v>
       </c>
       <c r="J37" t="n">
-        <v>0.969</v>
+        <v>0.98</v>
       </c>
       <c r="K37" t="n">
-        <v>0.978</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="38">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>F90_F98</t>
+          <t>F90_F98_comportamento</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1907,16 +1907,16 @@
         <v>-0.338</v>
       </c>
       <c r="E38" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.398</v>
+        <v>-0.397</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.278</v>
+        <v>-0.279</v>
       </c>
       <c r="I38" t="n">
         <v>0.713</v>
@@ -1925,7 +1925,7 @@
         <v>0.672</v>
       </c>
       <c r="K38" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="39">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F90_F98</t>
+          <t>F90_F98_comportamento</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>F90_F98</t>
+          <t>F90_F98_comportamento</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1982,28 +1982,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.292</v>
+        <v>-0.289</v>
       </c>
       <c r="E40" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.364</v>
+        <v>-0.36</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.22</v>
+        <v>-0.218</v>
       </c>
       <c r="I40" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="J40" t="n">
-        <v>0.695</v>
+        <v>0.698</v>
       </c>
       <c r="K40" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="41">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>F90_F98</t>
+          <t>F90_F98_comportamento</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2027,7 +2027,7 @@
         <v>0.003</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1863</v>
+        <v>0.2088</v>
       </c>
       <c r="G41" t="n">
         <v>-0.002</v>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>F90_F98</t>
+          <t>F90_F98_comportamento</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2060,28 +2060,28 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.197</v>
+        <v>-0.202</v>
       </c>
       <c r="E42" t="n">
-        <v>0.046</v>
+        <v>0.049</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.286</v>
+        <v>-0.298</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.107</v>
+        <v>-0.105</v>
       </c>
       <c r="I42" t="n">
-        <v>0.821</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>0.751</v>
+        <v>0.742</v>
       </c>
       <c r="K42" t="n">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>F90_F98</t>
+          <t>F90_F98_comportamento</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2099,28 +2099,28 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="H43" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="I43" t="n">
-        <v>1.014</v>
+        <v>1.015</v>
       </c>
       <c r="J43" t="n">
-        <v>1.012</v>
+        <v>1.01</v>
       </c>
       <c r="K43" t="n">
-        <v>1.017</v>
+        <v>1.019</v>
       </c>
     </row>
     <row r="44">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>F80_F89</t>
+          <t>F80_F89_desenvolvimento</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2156,7 +2156,7 @@
         <v>0.595</v>
       </c>
       <c r="J44" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="K44" t="n">
         <v>0.636</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>F80_F89</t>
+          <t>F80_F89_desenvolvimento</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>F80_F89</t>
+          <t>F80_F89_desenvolvimento</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2216,25 +2216,25 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-0.8149999999999999</v>
+        <v>-0.8169999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.143</v>
+        <v>0.144</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.096</v>
+        <v>-1.099</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.534</v>
+        <v>-0.535</v>
       </c>
       <c r="I46" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="J46" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="K46" t="n">
         <v>0.586</v>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>F80_F89</t>
+          <t>F80_F89_desenvolvimento</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>F80_F89</t>
+          <t>F80_F89_desenvolvimento</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2294,28 +2294,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.137</v>
+        <v>-0.175</v>
       </c>
       <c r="E48" t="n">
-        <v>0.064</v>
+        <v>0.066</v>
       </c>
       <c r="F48" t="n">
-        <v>0.031</v>
+        <v>0.0075</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.261</v>
+        <v>-0.304</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.012</v>
+        <v>-0.047</v>
       </c>
       <c r="I48" t="n">
-        <v>0.872</v>
+        <v>0.839</v>
       </c>
       <c r="J48" t="n">
-        <v>0.77</v>
+        <v>0.738</v>
       </c>
       <c r="K48" t="n">
-        <v>0.988</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="49">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>F80_F89</t>
+          <t>F80_F89_desenvolvimento</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="E49" t="n">
         <v>0.002</v>
@@ -2342,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="H49" t="n">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="I49" t="n">
-        <v>1.008</v>
+        <v>1.011</v>
       </c>
       <c r="J49" t="n">
-        <v>1.004</v>
+        <v>1.007</v>
       </c>
       <c r="K49" t="n">
-        <v>1.011</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="50">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>F70_F79</t>
+          <t>F70_F79_retardado</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2393,7 +2393,7 @@
         <v>0.246</v>
       </c>
       <c r="K50" t="n">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="51">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>F70_F79</t>
+          <t>F70_F79_retardado</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>F70_F79</t>
+          <t>F70_F79_retardado</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.376</v>
+        <v>-0.377</v>
       </c>
       <c r="H52" t="n">
         <v>-0.204</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>F70_F79</t>
+          <t>F70_F79_retardado</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2492,10 +2492,10 @@
         <v>0.002</v>
       </c>
       <c r="E53" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5193</v>
+        <v>0.5209</v>
       </c>
       <c r="G53" t="n">
         <v>-0.005</v>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>F70_F79</t>
+          <t>F70_F79_retardado</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2528,28 +2528,28 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.29</v>
+        <v>-0.331</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.388</v>
+        <v>-0.428</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.192</v>
+        <v>-0.235</v>
       </c>
       <c r="I54" t="n">
-        <v>0.748</v>
+        <v>0.718</v>
       </c>
       <c r="J54" t="n">
-        <v>0.678</v>
+        <v>0.652</v>
       </c>
       <c r="K54" t="n">
-        <v>0.825</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="55">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>F70_F79</t>
+          <t>F70_F79_retardado</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="E55" t="n">
         <v>0.001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0196</v>
+        <v>0.4292</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="I55" t="n">
-        <v>0.997</v>
+        <v>1.001</v>
       </c>
       <c r="J55" t="n">
-        <v>0.994</v>
+        <v>0.998</v>
       </c>
       <c r="K55" t="n">
-        <v>0.999</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="56">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>F60_F69</t>
+          <t>F60_F69_personalidade</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2609,22 +2609,22 @@
         <v>-2.678</v>
       </c>
       <c r="E56" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.773</v>
+        <v>-2.772</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.582</v>
+        <v>-2.583</v>
       </c>
       <c r="I56" t="n">
         <v>0.06900000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="K56" t="n">
         <v>0.076</v>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>F60_F69</t>
+          <t>F60_F69_personalidade</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>F60_F69</t>
+          <t>F60_F69_personalidade</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2684,28 +2684,28 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.063</v>
+        <v>0.066</v>
       </c>
       <c r="E58" t="n">
         <v>0.036</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0788</v>
+        <v>0.063</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="H58" t="n">
-        <v>0.132</v>
+        <v>0.136</v>
       </c>
       <c r="I58" t="n">
-        <v>1.065</v>
+        <v>1.068</v>
       </c>
       <c r="J58" t="n">
-        <v>0.993</v>
+        <v>0.996</v>
       </c>
       <c r="K58" t="n">
-        <v>1.141</v>
+        <v>1.145</v>
       </c>
     </row>
     <row r="59">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>F60_F69</t>
+          <t>F60_F69_personalidade</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.016</v>
+        <v>-0.017</v>
       </c>
       <c r="E59" t="n">
         <v>0.002</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
       <c r="H59" t="n">
         <v>-0.012</v>
       </c>
       <c r="I59" t="n">
-        <v>0.984</v>
+        <v>0.983</v>
       </c>
       <c r="J59" t="n">
         <v>0.979</v>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>F60_F69</t>
+          <t>F60_F69_personalidade</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2762,28 +2762,28 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.459</v>
+        <v>-0.438</v>
       </c>
       <c r="E60" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.586</v>
+        <v>-0.576</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.332</v>
+        <v>-0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>0.632</v>
+        <v>0.645</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>0.718</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="61">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>F60_F69</t>
+          <t>F60_F69_personalidade</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2801,25 +2801,25 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="E61" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0009</v>
+        <v>0.0021</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.01</v>
+        <v>-0.013</v>
       </c>
       <c r="H61" t="n">
         <v>-0.003</v>
       </c>
       <c r="I61" t="n">
-        <v>0.994</v>
+        <v>0.992</v>
       </c>
       <c r="J61" t="n">
-        <v>0.99</v>
+        <v>0.987</v>
       </c>
       <c r="K61" t="n">
         <v>0.997</v>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>F50_F59</t>
+          <t>F50_F59_fisiologicos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2849,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.8080000000000001</v>
+        <v>-0.8090000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>-0.729</v>
       </c>
       <c r="I62" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="J62" t="n">
         <v>0.446</v>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>F50_F59</t>
+          <t>F50_F59_fisiologicos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>F50_F59</t>
+          <t>F50_F59_fisiologicos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="H64" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="I64" t="n">
-        <v>1.463</v>
+        <v>1.462</v>
       </c>
       <c r="J64" t="n">
-        <v>1.374</v>
+        <v>1.375</v>
       </c>
       <c r="K64" t="n">
-        <v>1.557</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="65">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>F50_F59</t>
+          <t>F50_F59_fisiologicos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.037</v>
+        <v>-0.036</v>
       </c>
       <c r="H65" t="n">
         <v>-0.028</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>F50_F59</t>
+          <t>F50_F59_fisiologicos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2996,28 +2996,28 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.351</v>
+        <v>-0.371</v>
       </c>
       <c r="E66" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.414</v>
+        <v>-0.435</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.287</v>
+        <v>-0.308</v>
       </c>
       <c r="I66" t="n">
-        <v>0.704</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J66" t="n">
-        <v>0.661</v>
+        <v>0.647</v>
       </c>
       <c r="K66" t="n">
-        <v>0.75</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="67">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>F50_F59</t>
+          <t>F50_F59_fisiologicos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.011</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E67" t="n">
         <v>0.001</v>
@@ -3044,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.013</v>
+        <v>-0.011</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.006</v>
       </c>
       <c r="I67" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.989</v>
       </c>
-      <c r="J67" t="n">
-        <v>0.987</v>
-      </c>
       <c r="K67" t="n">
-        <v>0.991</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="68">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>F40_F48</t>
+          <t>F40_F48_ansiosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.299</v>
+        <v>1.298</v>
       </c>
       <c r="E68" t="n">
         <v>0.023</v>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.254</v>
+        <v>1.253</v>
       </c>
       <c r="H68" t="n">
         <v>1.344</v>
       </c>
       <c r="I68" t="n">
-        <v>3.665</v>
+        <v>3.663</v>
       </c>
       <c r="J68" t="n">
-        <v>3.503</v>
+        <v>3.5</v>
       </c>
       <c r="K68" t="n">
         <v>3.833</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>F40_F48</t>
+          <t>F40_F48_ansiosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>F40_F48</t>
+          <t>F40_F48_ansiosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.244</v>
+        <v>0.243</v>
       </c>
       <c r="E70" t="n">
         <v>0.048</v>
@@ -3164,16 +3164,16 @@
         <v>0.149</v>
       </c>
       <c r="H70" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="I70" t="n">
-        <v>1.276</v>
+        <v>1.275</v>
       </c>
       <c r="J70" t="n">
-        <v>1.16</v>
+        <v>1.161</v>
       </c>
       <c r="K70" t="n">
-        <v>1.403</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="71">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>F40_F48</t>
+          <t>F40_F48_ansiosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3209,7 +3209,7 @@
         <v>0.981</v>
       </c>
       <c r="J71" t="n">
-        <v>0.975</v>
+        <v>0.976</v>
       </c>
       <c r="K71" t="n">
         <v>0.987</v>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>F40_F48</t>
+          <t>F40_F48_ansiosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3230,28 +3230,28 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.119</v>
+        <v>-0.169</v>
       </c>
       <c r="E72" t="n">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0038</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2</v>
+        <v>-0.242</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.039</v>
+        <v>-0.096</v>
       </c>
       <c r="I72" t="n">
-        <v>0.888</v>
+        <v>0.845</v>
       </c>
       <c r="J72" t="n">
-        <v>0.819</v>
+        <v>0.785</v>
       </c>
       <c r="K72" t="n">
-        <v>0.962</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="73">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>F40_F48</t>
+          <t>F40_F48_ansiosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3269,28 +3269,28 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.004</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>0.0147</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.012</v>
+        <v>-0.007</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="I73" t="n">
-        <v>0.991</v>
+        <v>0.996</v>
       </c>
       <c r="J73" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
       <c r="K73" t="n">
-        <v>0.994</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="74">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>F30_F39</t>
+          <t>F30_F39_humor</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3311,25 +3311,25 @@
         <v>1.459</v>
       </c>
       <c r="E74" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.431</v>
+        <v>1.43</v>
       </c>
       <c r="H74" t="n">
         <v>1.487</v>
       </c>
       <c r="I74" t="n">
-        <v>4.302</v>
+        <v>4.3</v>
       </c>
       <c r="J74" t="n">
-        <v>4.184</v>
+        <v>4.179</v>
       </c>
       <c r="K74" t="n">
-        <v>4.423</v>
+        <v>4.424</v>
       </c>
     </row>
     <row r="75">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>F30_F39</t>
+          <t>F30_F39_humor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>F30_F39</t>
+          <t>F30_F39_humor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.209</v>
+        <v>0.208</v>
       </c>
       <c r="E76" t="n">
         <v>0.05</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="H76" t="n">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
       <c r="I76" t="n">
-        <v>1.232</v>
+        <v>1.231</v>
       </c>
       <c r="J76" t="n">
-        <v>1.116</v>
+        <v>1.117</v>
       </c>
       <c r="K76" t="n">
-        <v>1.36</v>
+        <v>1.357</v>
       </c>
     </row>
     <row r="77">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>F30_F39</t>
+          <t>F30_F39_humor</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="E77" t="n">
         <v>0.003</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>F30_F39</t>
+          <t>F30_F39_humor</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3464,28 +3464,28 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.239</v>
+        <v>-0.27</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.298</v>
+        <v>-0.328</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.181</v>
+        <v>-0.213</v>
       </c>
       <c r="I78" t="n">
-        <v>0.787</v>
+        <v>0.763</v>
       </c>
       <c r="J78" t="n">
-        <v>0.742</v>
+        <v>0.721</v>
       </c>
       <c r="K78" t="n">
-        <v>0.835</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="79">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>F30_F39</t>
+          <t>F30_F39_humor</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="E79" t="n">
         <v>0.001</v>
@@ -3512,19 +3512,19 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.01</v>
+        <v>-0.007</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="I79" t="n">
-        <v>0.992</v>
+        <v>0.995</v>
       </c>
       <c r="J79" t="n">
-        <v>0.99</v>
+        <v>0.993</v>
       </c>
       <c r="K79" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="80">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>F20_F29</t>
+          <t>F20_F29_esquizofrenia_etc</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3554,7 +3554,7 @@
         <v>-0.22</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.067</v>
+        <v>-0.068</v>
       </c>
       <c r="I80" t="n">
         <v>0.866</v>
@@ -3563,7 +3563,7 @@
         <v>0.803</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>F20_F29</t>
+          <t>F20_F29_esquizofrenia_etc</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>F20_F29</t>
+          <t>F20_F29_esquizofrenia_etc</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3620,13 +3620,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1355</v>
+        <v>0.1351</v>
       </c>
       <c r="G82" t="n">
         <v>-0.028</v>
@@ -3635,13 +3635,13 @@
         <v>0.209</v>
       </c>
       <c r="I82" t="n">
-        <v>1.094</v>
+        <v>1.095</v>
       </c>
       <c r="J82" t="n">
         <v>0.972</v>
       </c>
       <c r="K82" t="n">
-        <v>1.232</v>
+        <v>1.233</v>
       </c>
     </row>
     <row r="83">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>F20_F29</t>
+          <t>F20_F29_esquizofrenia_etc</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>F20_F29</t>
+          <t>F20_F29_esquizofrenia_etc</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3698,28 +3698,28 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.407</v>
+        <v>-0.446</v>
       </c>
       <c r="E84" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.535</v>
+        <v>-0.572</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.279</v>
+        <v>-0.32</v>
       </c>
       <c r="I84" t="n">
-        <v>0.666</v>
+        <v>0.64</v>
       </c>
       <c r="J84" t="n">
-        <v>0.586</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>0.757</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="85">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>F20_F29</t>
+          <t>F20_F29_esquizofrenia_etc</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.005</v>
       </c>
       <c r="E85" t="n">
         <v>0.002</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.012</v>
+        <v>-0.008</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="I85" t="n">
-        <v>0.991</v>
+        <v>0.995</v>
       </c>
       <c r="J85" t="n">
-        <v>0.988</v>
+        <v>0.992</v>
       </c>
       <c r="K85" t="n">
-        <v>0.994</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="86">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>F00_F09</t>
+          <t>F10_F19_uso_substancia</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3776,28 +3776,28 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.501</v>
+        <v>-1.123</v>
       </c>
       <c r="E86" t="n">
-        <v>0.015</v>
+        <v>0.043</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.53</v>
+        <v>-1.207</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.472</v>
+        <v>-1.04</v>
       </c>
       <c r="I86" t="n">
-        <v>0.606</v>
+        <v>0.325</v>
       </c>
       <c r="J86" t="n">
-        <v>0.589</v>
+        <v>0.299</v>
       </c>
       <c r="K86" t="n">
-        <v>0.624</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="87">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>F00_F09</t>
+          <t>F10_F19_uso_substancia</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="E87" t="n">
         <v>0.001</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="H87" t="n">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="I87" t="n">
-        <v>1.011</v>
+        <v>1.007</v>
       </c>
       <c r="J87" t="n">
-        <v>1.01</v>
+        <v>1.004</v>
       </c>
       <c r="K87" t="n">
-        <v>1.012</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="88">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>F00_F09</t>
+          <t>F10_F19_uso_substancia</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3854,28 +3854,28 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.156</v>
+        <v>0.278</v>
       </c>
       <c r="E88" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.098</v>
+        <v>0.203</v>
       </c>
       <c r="H88" t="n">
-        <v>0.214</v>
+        <v>0.353</v>
       </c>
       <c r="I88" t="n">
-        <v>1.169</v>
+        <v>1.321</v>
       </c>
       <c r="J88" t="n">
-        <v>1.103</v>
+        <v>1.225</v>
       </c>
       <c r="K88" t="n">
-        <v>1.239</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="89">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>F00_F09</t>
+          <t>F10_F19_uso_substancia</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.018</v>
+        <v>-0.017</v>
       </c>
       <c r="E89" t="n">
         <v>0.002</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="H89" t="n">
         <v>-0.013</v>
@@ -3911,7 +3911,7 @@
         <v>0.983</v>
       </c>
       <c r="J89" t="n">
-        <v>0.978</v>
+        <v>0.979</v>
       </c>
       <c r="K89" t="n">
         <v>0.987</v>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>F00_F09</t>
+          <t>F10_F19_uso_substancia</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3932,28 +3932,28 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.188</v>
+        <v>-0.028</v>
       </c>
       <c r="E90" t="n">
-        <v>0.036</v>
+        <v>0.059</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.6284999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.259</v>
+        <v>-0.144</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.118</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I90" t="n">
-        <v>0.828</v>
+        <v>0.972</v>
       </c>
       <c r="J90" t="n">
-        <v>0.772</v>
+        <v>0.866</v>
       </c>
       <c r="K90" t="n">
-        <v>0.889</v>
+        <v>1.091</v>
       </c>
     </row>
     <row r="91">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>F00_F09</t>
+          <t>F10_F19_uso_substancia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3971,28 +3971,28 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.01</v>
+        <v>0.008</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.012</v>
+        <v>0.003</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.007</v>
+        <v>0.012</v>
       </c>
       <c r="I91" t="n">
-        <v>0.99</v>
+        <v>1.008</v>
       </c>
       <c r="J91" t="n">
-        <v>0.988</v>
+        <v>1.003</v>
       </c>
       <c r="K91" t="n">
-        <v>0.993</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="92">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>F00_F09_transtornos_organicos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4010,28 +4010,28 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2.463</v>
+        <v>-0.501</v>
       </c>
       <c r="E92" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2.432</v>
+        <v>-0.531</v>
       </c>
       <c r="H92" t="n">
-        <v>2.494</v>
+        <v>-0.472</v>
       </c>
       <c r="I92" t="n">
-        <v>11.739</v>
+        <v>0.606</v>
       </c>
       <c r="J92" t="n">
-        <v>11.378</v>
+        <v>0.588</v>
       </c>
       <c r="K92" t="n">
-        <v>12.112</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="93">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>F00_F09_transtornos_organicos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4049,28 +4049,28 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.012</v>
       </c>
-      <c r="H93" t="n">
-        <v>0.014</v>
-      </c>
       <c r="I93" t="n">
-        <v>1.013</v>
+        <v>1.011</v>
       </c>
       <c r="J93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K93" t="n">
         <v>1.012</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.014</v>
       </c>
     </row>
     <row r="94">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>F00_F09_transtornos_organicos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4088,28 +4088,28 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.162</v>
+        <v>0.155</v>
       </c>
       <c r="E94" t="n">
-        <v>0.043</v>
+        <v>0.029</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.078</v>
+        <v>0.098</v>
       </c>
       <c r="H94" t="n">
-        <v>0.246</v>
+        <v>0.212</v>
       </c>
       <c r="I94" t="n">
-        <v>1.176</v>
+        <v>1.167</v>
       </c>
       <c r="J94" t="n">
-        <v>1.081</v>
+        <v>1.103</v>
       </c>
       <c r="K94" t="n">
-        <v>1.278</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="95">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>F00_F09_transtornos_organicos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4127,28 +4127,28 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-0.017</v>
+        <v>-0.018</v>
       </c>
       <c r="E95" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.023</v>
+        <v>-0.022</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="I95" t="n">
         <v>0.983</v>
       </c>
       <c r="J95" t="n">
-        <v>0.977</v>
+        <v>0.979</v>
       </c>
       <c r="K95" t="n">
-        <v>0.989</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="96">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>F00_F09_transtornos_organicos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4166,28 +4166,28 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-0.186</v>
+        <v>-0.225</v>
       </c>
       <c r="E96" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.247</v>
+        <v>-0.292</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.124</v>
+        <v>-0.158</v>
       </c>
       <c r="I96" t="n">
-        <v>0.83</v>
+        <v>0.799</v>
       </c>
       <c r="J96" t="n">
-        <v>0.781</v>
+        <v>0.747</v>
       </c>
       <c r="K96" t="n">
-        <v>0.883</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="97">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>F00_F09_transtornos_organicos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="E97" t="n">
         <v>0.001</v>
@@ -4220,13 +4220,247 @@
         <v>-0.003</v>
       </c>
       <c r="I97" t="n">
-        <v>0.995</v>
+        <v>0.994</v>
       </c>
       <c r="J97" t="n">
         <v>0.992</v>
       </c>
       <c r="K97" t="n">
         <v>0.997</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.448</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11.939</v>
+      </c>
+      <c r="J98" t="n">
+        <v>11.569</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.321</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>periodo</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Pandemia_Step</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.267</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Pandemia_Trend</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PosPandemia_Step</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.211</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.266</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.856</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PosPandemia_Trend</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.5054999999999999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.002</v>
       </c>
     </row>
   </sheetData>

--- a/Coefs.xlsx
+++ b/Coefs.xlsx
@@ -500,28 +500,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.207</v>
+        <v>3.195</v>
       </c>
       <c r="E2" t="n">
-        <v>0.014</v>
+        <v>0.029</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.179</v>
+        <v>3.137</v>
       </c>
       <c r="H2" t="n">
-        <v>3.235</v>
+        <v>3.252</v>
       </c>
       <c r="I2" t="n">
-        <v>24.705</v>
+        <v>24.406</v>
       </c>
       <c r="J2" t="n">
-        <v>24.025</v>
+        <v>23.046</v>
       </c>
       <c r="K2" t="n">
-        <v>25.403</v>
+        <v>25.847</v>
       </c>
     </row>
     <row r="3">
@@ -539,28 +539,28 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.002</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.001</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.005</v>
+        <v>0.0017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="I3" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="J3" t="n">
         <v>1.002</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.001</v>
-      </c>
       <c r="K3" t="n">
-        <v>1.003</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="4">
@@ -578,28 +578,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.181</v>
+        <v>0.136</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="G4" t="n">
-        <v>0.104</v>
+        <v>0.061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.259</v>
+        <v>0.21</v>
       </c>
       <c r="I4" t="n">
-        <v>1.199</v>
+        <v>1.145</v>
       </c>
       <c r="J4" t="n">
-        <v>1.109</v>
+        <v>1.063</v>
       </c>
       <c r="K4" t="n">
-        <v>1.295</v>
+        <v>1.234</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.013</v>
+        <v>-0.016</v>
       </c>
       <c r="E5" t="n">
         <v>0.003</v>
@@ -626,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.018</v>
+        <v>-0.021</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="I5" t="n">
-        <v>0.988</v>
+        <v>0.985</v>
       </c>
       <c r="J5" t="n">
-        <v>0.982</v>
+        <v>0.979</v>
       </c>
       <c r="K5" t="n">
-        <v>0.993</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.1</v>
+        <v>-0.227</v>
       </c>
       <c r="E6" t="n">
-        <v>0.041</v>
+        <v>0.063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0155</v>
+        <v>0.0003</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.181</v>
+        <v>-0.351</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.019</v>
+        <v>-0.103</v>
       </c>
       <c r="I6" t="n">
-        <v>0.905</v>
+        <v>0.797</v>
       </c>
       <c r="J6" t="n">
-        <v>0.834</v>
+        <v>0.704</v>
       </c>
       <c r="K6" t="n">
-        <v>0.981</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="7">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="E7" t="n">
         <v>0.002</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="H7" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="I7" t="n">
-        <v>1.01</v>
+        <v>1.007</v>
       </c>
       <c r="J7" t="n">
-        <v>1.007</v>
+        <v>1.003</v>
       </c>
       <c r="K7" t="n">
-        <v>1.014</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="8">
@@ -734,28 +734,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.465</v>
+        <v>2.881</v>
       </c>
       <c r="E8" t="n">
-        <v>0.043</v>
+        <v>0.013</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.381</v>
+        <v>2.856</v>
       </c>
       <c r="H8" t="n">
-        <v>2.548</v>
+        <v>2.907</v>
       </c>
       <c r="I8" t="n">
-        <v>11.761</v>
+        <v>17.838</v>
       </c>
       <c r="J8" t="n">
-        <v>10.821</v>
+        <v>17.39</v>
       </c>
       <c r="K8" t="n">
-        <v>12.783</v>
+        <v>18.297</v>
       </c>
     </row>
     <row r="9">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="E9" t="n">
         <v>0.001</v>
@@ -782,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="H9" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="I9" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.016</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.014</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.018</v>
       </c>
     </row>
     <row r="10">
@@ -812,25 +812,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.123</v>
+        <v>0.139</v>
       </c>
       <c r="E10" t="n">
-        <v>0.044</v>
+        <v>0.036</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0052</v>
+        <v>0.0001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.037</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0.21</v>
       </c>
       <c r="I10" t="n">
-        <v>1.131</v>
+        <v>1.149</v>
       </c>
       <c r="J10" t="n">
-        <v>1.037</v>
+        <v>1.071</v>
       </c>
       <c r="K10" t="n">
         <v>1.233</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.02</v>
+        <v>-0.017</v>
       </c>
       <c r="E11" t="n">
         <v>0.003</v>
@@ -860,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.025</v>
+        <v>-0.022</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="I11" t="n">
-        <v>0.981</v>
+        <v>0.984</v>
       </c>
       <c r="J11" t="n">
-        <v>0.975</v>
+        <v>0.978</v>
       </c>
       <c r="K11" t="n">
-        <v>0.986</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.348</v>
+        <v>-0.274</v>
       </c>
       <c r="E12" t="n">
-        <v>0.057</v>
+        <v>0.049</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.459</v>
+        <v>-0.371</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.237</v>
+        <v>-0.177</v>
       </c>
       <c r="I12" t="n">
-        <v>0.706</v>
+        <v>0.76</v>
       </c>
       <c r="J12" t="n">
-        <v>0.632</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.789</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="13">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="E13" t="n">
         <v>0.002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009</v>
+        <v>0.0558</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.01</v>
+        <v>-0.007</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.994</v>
+        <v>0.997</v>
       </c>
       <c r="J13" t="n">
-        <v>0.99</v>
+        <v>0.993</v>
       </c>
       <c r="K13" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.703</v>
+        <v>2.209</v>
       </c>
       <c r="E14" t="n">
-        <v>0.039</v>
+        <v>0.023</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.627</v>
+        <v>2.164</v>
       </c>
       <c r="H14" t="n">
-        <v>1.779</v>
+        <v>2.255</v>
       </c>
       <c r="I14" t="n">
-        <v>5.491</v>
+        <v>9.111000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>5.091</v>
+        <v>8.709</v>
       </c>
       <c r="K14" t="n">
-        <v>5.923</v>
+        <v>9.531000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="E15" t="n">
         <v>0.001</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="I15" t="n">
-        <v>1.017</v>
+        <v>1.011</v>
       </c>
       <c r="J15" t="n">
-        <v>1.015</v>
+        <v>1.009</v>
       </c>
       <c r="K15" t="n">
-        <v>1.019</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="16">
@@ -1046,28 +1046,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.035</v>
+        <v>0.024</v>
       </c>
       <c r="E16" t="n">
-        <v>0.095</v>
+        <v>0.081</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7108</v>
+        <v>0.7698</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.221</v>
+        <v>-0.135</v>
       </c>
       <c r="H16" t="n">
-        <v>0.151</v>
+        <v>0.183</v>
       </c>
       <c r="I16" t="n">
-        <v>0.965</v>
+        <v>1.024</v>
       </c>
       <c r="J16" t="n">
-        <v>0.802</v>
+        <v>0.873</v>
       </c>
       <c r="K16" t="n">
-        <v>1.163</v>
+        <v>1.201</v>
       </c>
     </row>
     <row r="17">
@@ -1085,28 +1085,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.01</v>
+        <v>-0.004</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0491</v>
+        <v>0.4719</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.021</v>
+        <v>-0.015</v>
       </c>
       <c r="H17" t="n">
-        <v>-0</v>
+        <v>0.007</v>
       </c>
       <c r="I17" t="n">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="J17" t="n">
-        <v>0.979</v>
+        <v>0.985</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="18">
@@ -1124,28 +1124,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.255</v>
+        <v>-0.053</v>
       </c>
       <c r="E18" t="n">
-        <v>0.058</v>
+        <v>0.052</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.3101</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.368</v>
+        <v>-0.155</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.141</v>
+        <v>0.049</v>
       </c>
       <c r="I18" t="n">
-        <v>0.775</v>
+        <v>0.949</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.857</v>
       </c>
       <c r="K18" t="n">
-        <v>0.868</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="19">
@@ -1163,28 +1163,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E19" t="n">
         <v>0.002</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6711</v>
+        <v>0.0114</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.005</v>
+        <v>0.001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>0.999</v>
+        <v>1.005</v>
       </c>
       <c r="J19" t="n">
-        <v>0.995</v>
+        <v>1.001</v>
       </c>
       <c r="K19" t="n">
-        <v>1.003</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="20">
@@ -1202,28 +1202,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.748</v>
+        <v>2.264</v>
       </c>
       <c r="E20" t="n">
-        <v>0.021</v>
+        <v>0.029</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.706</v>
+        <v>2.208</v>
       </c>
       <c r="H20" t="n">
-        <v>1.79</v>
+        <v>2.321</v>
       </c>
       <c r="I20" t="n">
-        <v>5.745</v>
+        <v>9.625</v>
       </c>
       <c r="J20" t="n">
-        <v>5.509</v>
+        <v>9.093999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>5.991</v>
+        <v>10.187</v>
       </c>
     </row>
     <row r="21">
@@ -1241,28 +1241,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="H21" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="I21" t="n">
-        <v>1.019</v>
+        <v>1.016</v>
       </c>
       <c r="J21" t="n">
-        <v>1.018</v>
+        <v>1.011</v>
       </c>
       <c r="K21" t="n">
-        <v>1.021</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="22">
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.286</v>
+        <v>0.324</v>
       </c>
       <c r="E22" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.189</v>
+        <v>0.233</v>
       </c>
       <c r="H22" t="n">
-        <v>0.382</v>
+        <v>0.416</v>
       </c>
       <c r="I22" t="n">
-        <v>1.331</v>
+        <v>1.383</v>
       </c>
       <c r="J22" t="n">
-        <v>1.209</v>
+        <v>1.262</v>
       </c>
       <c r="K22" t="n">
-        <v>1.465</v>
+        <v>1.515</v>
       </c>
     </row>
     <row r="23">
@@ -1319,28 +1319,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.018</v>
+        <v>-0.014</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.024</v>
+        <v>-0.023</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.012</v>
+        <v>-0.006</v>
       </c>
       <c r="I23" t="n">
-        <v>0.982</v>
+        <v>0.986</v>
       </c>
       <c r="J23" t="n">
-        <v>0.976</v>
+        <v>0.978</v>
       </c>
       <c r="K23" t="n">
-        <v>0.988</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="24">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.08400000000000001</v>
+        <v>0.039</v>
       </c>
       <c r="E24" t="n">
-        <v>0.056</v>
+        <v>0.103</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1338</v>
+        <v>0.7065</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.193</v>
+        <v>-0.163</v>
       </c>
       <c r="H24" t="n">
-        <v>0.026</v>
+        <v>0.241</v>
       </c>
       <c r="I24" t="n">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="J24" t="n">
-        <v>0.824</v>
+        <v>0.849</v>
       </c>
       <c r="K24" t="n">
-        <v>1.026</v>
+        <v>1.273</v>
       </c>
     </row>
     <row r="25">
@@ -1397,28 +1397,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1237</v>
+        <v>0.6493</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="I25" t="n">
-        <v>0.997</v>
+        <v>1.001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.994</v>
+        <v>0.996</v>
       </c>
       <c r="K25" t="n">
-        <v>1.001</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="26">
@@ -1436,28 +1436,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.381</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0.041</v>
+        <v>0.015</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.301</v>
+        <v>2.971</v>
       </c>
       <c r="H26" t="n">
-        <v>2.461</v>
+        <v>3.029</v>
       </c>
       <c r="I26" t="n">
-        <v>10.814</v>
+        <v>20.089</v>
       </c>
       <c r="J26" t="n">
-        <v>9.984</v>
+        <v>19.518</v>
       </c>
       <c r="K26" t="n">
-        <v>11.714</v>
+        <v>20.677</v>
       </c>
     </row>
     <row r="27">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.019</v>
+        <v>0.008</v>
       </c>
       <c r="E27" t="n">
         <v>0.001</v>
@@ -1484,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.016</v>
+        <v>0.006</v>
       </c>
       <c r="H27" t="n">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
       <c r="I27" t="n">
-        <v>1.019</v>
+        <v>1.008</v>
       </c>
       <c r="J27" t="n">
-        <v>1.017</v>
+        <v>1.006</v>
       </c>
       <c r="K27" t="n">
-        <v>1.022</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="28">
@@ -1514,28 +1514,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.045</v>
+        <v>0.082</v>
       </c>
       <c r="E28" t="n">
-        <v>0.074</v>
+        <v>0.055</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5414</v>
+        <v>0.1402</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.189</v>
+        <v>-0.027</v>
       </c>
       <c r="H28" t="n">
-        <v>0.099</v>
+        <v>0.19</v>
       </c>
       <c r="I28" t="n">
-        <v>0.956</v>
+        <v>1.085</v>
       </c>
       <c r="J28" t="n">
-        <v>0.827</v>
+        <v>0.974</v>
       </c>
       <c r="K28" t="n">
-        <v>1.105</v>
+        <v>1.209</v>
       </c>
     </row>
     <row r="29">
@@ -1553,28 +1553,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.022</v>
+        <v>-0.012</v>
       </c>
       <c r="E29" t="n">
         <v>0.004</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.029</v>
+        <v>-0.02</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.015</v>
+        <v>-0.004</v>
       </c>
       <c r="I29" t="n">
-        <v>0.978</v>
+        <v>0.988</v>
       </c>
       <c r="J29" t="n">
-        <v>0.971</v>
+        <v>0.981</v>
       </c>
       <c r="K29" t="n">
-        <v>0.985</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="30">
@@ -1592,28 +1592,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.529</v>
+        <v>-0.146</v>
       </c>
       <c r="E30" t="n">
-        <v>0.075</v>
+        <v>0.058</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.676</v>
+        <v>-0.259</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.383</v>
+        <v>-0.032</v>
       </c>
       <c r="I30" t="n">
-        <v>0.589</v>
+        <v>0.864</v>
       </c>
       <c r="J30" t="n">
-        <v>0.509</v>
+        <v>0.772</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="31">
@@ -1631,28 +1631,28 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="E31" t="n">
         <v>0.002</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.6291</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.015</v>
+        <v>-0.005</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.008</v>
+        <v>0.003</v>
       </c>
       <c r="I31" t="n">
-        <v>0.989</v>
+        <v>0.999</v>
       </c>
       <c r="J31" t="n">
-        <v>0.985</v>
+        <v>0.995</v>
       </c>
       <c r="K31" t="n">
-        <v>0.992</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="32">
@@ -1670,28 +1670,28 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-2.042</v>
+        <v>-1.364</v>
       </c>
       <c r="E32" t="n">
-        <v>0.063</v>
+        <v>0.037</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.167</v>
+        <v>-1.437</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.918</v>
+        <v>-1.291</v>
       </c>
       <c r="I32" t="n">
-        <v>0.13</v>
+        <v>0.256</v>
       </c>
       <c r="J32" t="n">
-        <v>0.115</v>
+        <v>0.238</v>
       </c>
       <c r="K32" t="n">
-        <v>0.147</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="33">
@@ -1709,25 +1709,25 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="E33" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="H33" t="n">
         <v>0.031</v>
       </c>
       <c r="I33" t="n">
-        <v>1.028</v>
+        <v>1.026</v>
       </c>
       <c r="J33" t="n">
-        <v>1.024</v>
+        <v>1.021</v>
       </c>
       <c r="K33" t="n">
         <v>1.031</v>
@@ -1748,28 +1748,28 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.371</v>
+        <v>0.39</v>
       </c>
       <c r="E34" t="n">
-        <v>0.093</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.188</v>
+        <v>0.225</v>
       </c>
       <c r="H34" t="n">
-        <v>0.554</v>
+        <v>0.556</v>
       </c>
       <c r="I34" t="n">
-        <v>1.449</v>
+        <v>1.478</v>
       </c>
       <c r="J34" t="n">
-        <v>1.206</v>
+        <v>1.252</v>
       </c>
       <c r="K34" t="n">
-        <v>1.739</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="35">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.048</v>
+        <v>-0.046</v>
       </c>
       <c r="E35" t="n">
         <v>0.006</v>
@@ -1799,16 +1799,16 @@
         <v>-0.058</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.037</v>
+        <v>-0.033</v>
       </c>
       <c r="I35" t="n">
-        <v>0.954</v>
+        <v>0.955</v>
       </c>
       <c r="J35" t="n">
         <v>0.9429999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0.964</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="36">
@@ -1826,28 +1826,28 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.747</v>
+        <v>-0.6889999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.083</v>
+        <v>0.107</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.91</v>
+        <v>-0.898</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.583</v>
+        <v>-0.48</v>
       </c>
       <c r="I36" t="n">
-        <v>0.474</v>
+        <v>0.502</v>
       </c>
       <c r="J36" t="n">
-        <v>0.402</v>
+        <v>0.407</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="37">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.017</v>
+        <v>-0.015</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1877,16 +1877,16 @@
         <v>-0.02</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.014</v>
+        <v>-0.01</v>
       </c>
       <c r="I37" t="n">
-        <v>0.983</v>
+        <v>0.985</v>
       </c>
       <c r="J37" t="n">
         <v>0.98</v>
       </c>
       <c r="K37" t="n">
-        <v>0.986</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="38">
@@ -1904,28 +1904,28 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.338</v>
+        <v>-0.078</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.0131</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.397</v>
+        <v>-0.139</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.279</v>
+        <v>-0.016</v>
       </c>
       <c r="I38" t="n">
-        <v>0.713</v>
+        <v>0.925</v>
       </c>
       <c r="J38" t="n">
-        <v>0.672</v>
+        <v>0.87</v>
       </c>
       <c r="K38" t="n">
-        <v>0.756</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="39">
@@ -1943,28 +1943,28 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.0984</v>
       </c>
       <c r="G39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.006</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.008999999999999999</v>
-      </c>
       <c r="I39" t="n">
-        <v>1.008</v>
+        <v>1.003</v>
       </c>
       <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
         <v>1.006</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.009</v>
       </c>
     </row>
     <row r="40">
@@ -1982,28 +1982,28 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.289</v>
+        <v>-0.231</v>
       </c>
       <c r="E40" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.36</v>
+        <v>-0.298</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.218</v>
+        <v>-0.164</v>
       </c>
       <c r="I40" t="n">
-        <v>0.749</v>
+        <v>0.794</v>
       </c>
       <c r="J40" t="n">
-        <v>0.698</v>
+        <v>0.743</v>
       </c>
       <c r="K40" t="n">
-        <v>0.804</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="41">
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.003</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E41" t="n">
         <v>0.003</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2088</v>
+        <v>0.0022</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="I41" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="J41" t="n">
         <v>1.003</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.998</v>
-      </c>
       <c r="K41" t="n">
-        <v>1.008</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="42">
@@ -2060,28 +2060,28 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.202</v>
+        <v>-0.021</v>
       </c>
       <c r="E42" t="n">
-        <v>0.049</v>
+        <v>0.06</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.7281</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.298</v>
+        <v>-0.138</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.105</v>
+        <v>0.096</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.979</v>
       </c>
       <c r="J42" t="n">
-        <v>0.742</v>
+        <v>0.871</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="43">
@@ -2099,28 +2099,28 @@
         </is>
       </c>
       <c r="D43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.015</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.01</v>
-      </c>
       <c r="H43" t="n">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
       <c r="I43" t="n">
-        <v>1.015</v>
+        <v>1.021</v>
       </c>
       <c r="J43" t="n">
-        <v>1.01</v>
+        <v>1.016</v>
       </c>
       <c r="K43" t="n">
-        <v>1.019</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="44">
@@ -2138,28 +2138,28 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.519</v>
+        <v>-0.157</v>
       </c>
       <c r="E44" t="n">
-        <v>0.034</v>
+        <v>0.046</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.586</v>
+        <v>-0.248</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.452</v>
+        <v>-0.066</v>
       </c>
       <c r="I44" t="n">
-        <v>0.595</v>
+        <v>0.854</v>
       </c>
       <c r="J44" t="n">
-        <v>0.556</v>
+        <v>0.78</v>
       </c>
       <c r="K44" t="n">
-        <v>0.636</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -2177,28 +2177,28 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="H45" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I45" t="n">
-        <v>1.015</v>
+        <v>1.014</v>
       </c>
       <c r="J45" t="n">
-        <v>1.013</v>
+        <v>1.008</v>
       </c>
       <c r="K45" t="n">
-        <v>1.017</v>
+        <v>1.021</v>
       </c>
     </row>
     <row r="46">
@@ -2216,28 +2216,28 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-0.8169999999999999</v>
+        <v>-0.8090000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>0.144</v>
+        <v>0.139</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.099</v>
+        <v>-1.08</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.535</v>
+        <v>-0.537</v>
       </c>
       <c r="I46" t="n">
-        <v>0.442</v>
+        <v>0.445</v>
       </c>
       <c r="J46" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="K46" t="n">
-        <v>0.586</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="47">
@@ -2255,28 +2255,28 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="E47" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="G47" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="H47" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="I47" t="n">
         <v>1.035</v>
       </c>
       <c r="J47" t="n">
-        <v>1.016</v>
+        <v>1.015</v>
       </c>
       <c r="K47" t="n">
-        <v>1.054</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="48">
@@ -2294,28 +2294,28 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.175</v>
+        <v>-0.151</v>
       </c>
       <c r="E48" t="n">
-        <v>0.066</v>
+        <v>0.125</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0075</v>
+        <v>0.2276</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.304</v>
+        <v>-0.396</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.047</v>
+        <v>0.094</v>
       </c>
       <c r="I48" t="n">
-        <v>0.839</v>
+        <v>0.86</v>
       </c>
       <c r="J48" t="n">
-        <v>0.738</v>
+        <v>0.673</v>
       </c>
       <c r="K48" t="n">
-        <v>0.954</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="49">
@@ -2336,25 +2336,25 @@
         <v>0.011</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="G49" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="H49" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="I49" t="n">
         <v>1.011</v>
       </c>
       <c r="J49" t="n">
-        <v>1.007</v>
+        <v>1.004</v>
       </c>
       <c r="K49" t="n">
-        <v>1.016</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="50">
@@ -2372,28 +2372,28 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-1.336</v>
+        <v>-0.959</v>
       </c>
       <c r="E50" t="n">
-        <v>0.033</v>
+        <v>0.013</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.401</v>
+        <v>-0.984</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.271</v>
+        <v>-0.9340000000000001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.263</v>
+        <v>0.383</v>
       </c>
       <c r="J50" t="n">
-        <v>0.246</v>
+        <v>0.374</v>
       </c>
       <c r="K50" t="n">
-        <v>0.28</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="51">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="E51" t="n">
         <v>0.001</v>
@@ -2420,19 +2420,19 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.01</v>
       </c>
-      <c r="H51" t="n">
-        <v>0.014</v>
-      </c>
       <c r="I51" t="n">
-        <v>1.012</v>
+        <v>1.008</v>
       </c>
       <c r="J51" t="n">
-        <v>1.011</v>
+        <v>1.006</v>
       </c>
       <c r="K51" t="n">
-        <v>1.014</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="52">
@@ -2450,28 +2450,28 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.29</v>
+        <v>-0.246</v>
       </c>
       <c r="E52" t="n">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.377</v>
+        <v>-0.323</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.204</v>
+        <v>-0.169</v>
       </c>
       <c r="I52" t="n">
-        <v>0.748</v>
+        <v>0.782</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.724</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="53">
@@ -2489,28 +2489,28 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5209</v>
+        <v>0.0306</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.005</v>
+        <v>0.001</v>
       </c>
       <c r="H53" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="I53" t="n">
-        <v>1.002</v>
+        <v>1.007</v>
       </c>
       <c r="J53" t="n">
-        <v>0.995</v>
+        <v>1.001</v>
       </c>
       <c r="K53" t="n">
-        <v>1.009</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="54">
@@ -2528,28 +2528,28 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.331</v>
+        <v>-0.169</v>
       </c>
       <c r="E54" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.428</v>
+        <v>-0.267</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.235</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>0.718</v>
+        <v>0.845</v>
       </c>
       <c r="J54" t="n">
-        <v>0.652</v>
+        <v>0.766</v>
       </c>
       <c r="K54" t="n">
-        <v>0.79</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="E55" t="n">
         <v>0.001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4292</v>
+        <v>0.0002</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="H55" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="I55" t="n">
-        <v>1.001</v>
+        <v>1.006</v>
       </c>
       <c r="J55" t="n">
-        <v>0.998</v>
+        <v>1.003</v>
       </c>
       <c r="K55" t="n">
-        <v>1.004</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="56">
@@ -2606,28 +2606,28 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-2.678</v>
+        <v>-2.19</v>
       </c>
       <c r="E56" t="n">
-        <v>0.048</v>
+        <v>0.025</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.772</v>
+        <v>-2.239</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.583</v>
+        <v>-2.14</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="J56" t="n">
-        <v>0.063</v>
+        <v>0.107</v>
       </c>
       <c r="K56" t="n">
-        <v>0.076</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="57">
@@ -2666,7 +2666,7 @@
         <v>1.018</v>
       </c>
       <c r="K57" t="n">
-        <v>1.023</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="58">
@@ -2684,28 +2684,28 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.066</v>
+        <v>0.059</v>
       </c>
       <c r="E58" t="n">
-        <v>0.036</v>
+        <v>0.028</v>
       </c>
       <c r="F58" t="n">
-        <v>0.063</v>
+        <v>0.0386</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="H58" t="n">
-        <v>0.136</v>
+        <v>0.114</v>
       </c>
       <c r="I58" t="n">
-        <v>1.068</v>
+        <v>1.061</v>
       </c>
       <c r="J58" t="n">
-        <v>0.996</v>
+        <v>1.003</v>
       </c>
       <c r="K58" t="n">
-        <v>1.145</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="59">
@@ -2726,7 +2726,7 @@
         <v>-0.017</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2735,16 +2735,16 @@
         <v>-0.022</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.012</v>
+        <v>-0.011</v>
       </c>
       <c r="I59" t="n">
-        <v>0.983</v>
+        <v>0.984</v>
       </c>
       <c r="J59" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="K59" t="n">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="60">
@@ -2762,28 +2762,28 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.438</v>
+        <v>-0.451</v>
       </c>
       <c r="E60" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.062</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.576</v>
+        <v>-0.572</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.3</v>
+        <v>-0.331</v>
       </c>
       <c r="I60" t="n">
-        <v>0.645</v>
+        <v>0.637</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>0.741</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="61">
@@ -2807,10 +2807,10 @@
         <v>0.003</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0021</v>
+        <v>0.0017</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="H61" t="n">
         <v>-0.003</v>
@@ -2840,28 +2840,28 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-0.769</v>
+        <v>-0.515</v>
       </c>
       <c r="E62" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.8090000000000001</v>
+        <v>-0.556</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.729</v>
+        <v>-0.474</v>
       </c>
       <c r="I62" t="n">
-        <v>0.463</v>
+        <v>0.597</v>
       </c>
       <c r="J62" t="n">
-        <v>0.446</v>
+        <v>0.573</v>
       </c>
       <c r="K62" t="n">
-        <v>0.482</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="63">
@@ -2888,19 +2888,19 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="H63" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="I63" t="n">
         <v>1.011</v>
       </c>
       <c r="J63" t="n">
-        <v>1.01</v>
+        <v>1.008</v>
       </c>
       <c r="K63" t="n">
-        <v>1.012</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="64">
@@ -2918,28 +2918,28 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.38</v>
+        <v>0.369</v>
       </c>
       <c r="E64" t="n">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.318</v>
+        <v>0.313</v>
       </c>
       <c r="H64" t="n">
-        <v>0.442</v>
+        <v>0.425</v>
       </c>
       <c r="I64" t="n">
-        <v>1.462</v>
+        <v>1.446</v>
       </c>
       <c r="J64" t="n">
-        <v>1.375</v>
+        <v>1.367</v>
       </c>
       <c r="K64" t="n">
-        <v>1.556</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="65">
@@ -2969,16 +2969,16 @@
         <v>-0.036</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.028</v>
+        <v>-0.027</v>
       </c>
       <c r="I65" t="n">
-        <v>0.968</v>
+        <v>0.969</v>
       </c>
       <c r="J65" t="n">
         <v>0.964</v>
       </c>
       <c r="K65" t="n">
-        <v>0.973</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="66">
@@ -2996,28 +2996,28 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.371</v>
+        <v>-0.388</v>
       </c>
       <c r="E66" t="n">
-        <v>0.033</v>
+        <v>0.057</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.435</v>
+        <v>-0.501</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.308</v>
+        <v>-0.276</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.678</v>
       </c>
       <c r="J66" t="n">
-        <v>0.647</v>
+        <v>0.606</v>
       </c>
       <c r="K66" t="n">
-        <v>0.735</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="67">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.008</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -3047,16 +3047,16 @@
         <v>-0.011</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="I67" t="n">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
       <c r="J67" t="n">
         <v>0.989</v>
       </c>
       <c r="K67" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="68">
@@ -3074,28 +3074,28 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.298</v>
+        <v>1.772</v>
       </c>
       <c r="E68" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1.253</v>
+        <v>1.73</v>
       </c>
       <c r="H68" t="n">
-        <v>1.344</v>
+        <v>1.814</v>
       </c>
       <c r="I68" t="n">
-        <v>3.663</v>
+        <v>5.881</v>
       </c>
       <c r="J68" t="n">
-        <v>3.5</v>
+        <v>5.639</v>
       </c>
       <c r="K68" t="n">
-        <v>3.833</v>
+        <v>6.133</v>
       </c>
     </row>
     <row r="69">
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="D69" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.018</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.019</v>
-      </c>
       <c r="I69" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="K69" t="n">
         <v>1.018</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.017</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.019</v>
       </c>
     </row>
     <row r="70">
@@ -3152,28 +3152,28 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.243</v>
+        <v>0.271</v>
       </c>
       <c r="E70" t="n">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.149</v>
+        <v>0.189</v>
       </c>
       <c r="H70" t="n">
-        <v>0.336</v>
+        <v>0.353</v>
       </c>
       <c r="I70" t="n">
-        <v>1.275</v>
+        <v>1.311</v>
       </c>
       <c r="J70" t="n">
-        <v>1.161</v>
+        <v>1.207</v>
       </c>
       <c r="K70" t="n">
-        <v>1.4</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="71">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-0.019</v>
+        <v>-0.015</v>
       </c>
       <c r="E71" t="n">
         <v>0.003</v>
@@ -3200,19 +3200,19 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.025</v>
+        <v>-0.022</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.013</v>
+        <v>-0.008</v>
       </c>
       <c r="I71" t="n">
-        <v>0.981</v>
+        <v>0.985</v>
       </c>
       <c r="J71" t="n">
-        <v>0.976</v>
+        <v>0.979</v>
       </c>
       <c r="K71" t="n">
-        <v>0.987</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="72">
@@ -3230,28 +3230,28 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.169</v>
+        <v>-0.066</v>
       </c>
       <c r="E72" t="n">
-        <v>0.037</v>
+        <v>0.068</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.3281</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.242</v>
+        <v>-0.198</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.096</v>
+        <v>0.066</v>
       </c>
       <c r="I72" t="n">
-        <v>0.845</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>0.785</v>
+        <v>0.82</v>
       </c>
       <c r="K72" t="n">
-        <v>0.908</v>
+        <v>1.069</v>
       </c>
     </row>
     <row r="73">
@@ -3269,28 +3269,28 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.004</v>
+        <v>-0</v>
       </c>
       <c r="E73" t="n">
         <v>0.002</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0147</v>
+        <v>0.9603</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
         <v>0.996</v>
       </c>
-      <c r="J73" t="n">
-        <v>0.993</v>
-      </c>
       <c r="K73" t="n">
-        <v>0.999</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="74">
@@ -3308,28 +3308,28 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.459</v>
+        <v>1.614</v>
       </c>
       <c r="E74" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1.43</v>
+        <v>1.582</v>
       </c>
       <c r="H74" t="n">
-        <v>1.487</v>
+        <v>1.647</v>
       </c>
       <c r="I74" t="n">
-        <v>4.3</v>
+        <v>5.024</v>
       </c>
       <c r="J74" t="n">
-        <v>4.179</v>
+        <v>4.863</v>
       </c>
       <c r="K74" t="n">
-        <v>4.424</v>
+        <v>5.191</v>
       </c>
     </row>
     <row r="75">
@@ -3347,10 +3347,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3359,16 +3359,16 @@
         <v>0.006</v>
       </c>
       <c r="H75" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="I75" t="n">
-        <v>1.007</v>
+        <v>1.009</v>
       </c>
       <c r="J75" t="n">
         <v>1.006</v>
       </c>
       <c r="K75" t="n">
-        <v>1.008</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="76">
@@ -3386,28 +3386,28 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.208</v>
+        <v>0.184</v>
       </c>
       <c r="E76" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G76" t="n">
-        <v>0.111</v>
+        <v>0.094</v>
       </c>
       <c r="H76" t="n">
-        <v>0.305</v>
+        <v>0.274</v>
       </c>
       <c r="I76" t="n">
-        <v>1.231</v>
+        <v>1.202</v>
       </c>
       <c r="J76" t="n">
-        <v>1.117</v>
+        <v>1.098</v>
       </c>
       <c r="K76" t="n">
-        <v>1.357</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="77">
@@ -3425,25 +3425,25 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.028</v>
+        <v>-0.029</v>
       </c>
       <c r="H77" t="n">
         <v>-0.015</v>
       </c>
       <c r="I77" t="n">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
       <c r="J77" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
       <c r="K77" t="n">
         <v>0.985</v>
@@ -3464,28 +3464,28 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.27</v>
+        <v>-0.325</v>
       </c>
       <c r="E78" t="n">
-        <v>0.029</v>
+        <v>0.045</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.328</v>
+        <v>-0.413</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.213</v>
+        <v>-0.238</v>
       </c>
       <c r="I78" t="n">
-        <v>0.763</v>
+        <v>0.722</v>
       </c>
       <c r="J78" t="n">
-        <v>0.721</v>
+        <v>0.661</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="79">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="E79" t="n">
         <v>0.001</v>
@@ -3512,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.007</v>
+        <v>-0.008</v>
       </c>
       <c r="H79" t="n">
         <v>-0.003</v>
       </c>
       <c r="I79" t="n">
-        <v>0.995</v>
+        <v>0.994</v>
       </c>
       <c r="J79" t="n">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
       <c r="K79" t="n">
         <v>0.997</v>
@@ -3542,28 +3542,28 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.144</v>
+        <v>0.253</v>
       </c>
       <c r="E80" t="n">
-        <v>0.039</v>
+        <v>0.031</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.22</v>
+        <v>0.192</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.068</v>
+        <v>0.315</v>
       </c>
       <c r="I80" t="n">
-        <v>0.866</v>
+        <v>1.288</v>
       </c>
       <c r="J80" t="n">
-        <v>0.803</v>
+        <v>1.211</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9340000000000001</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="81">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="H81" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="I81" t="n">
-        <v>1.013</v>
+        <v>1.007</v>
       </c>
       <c r="J81" t="n">
-        <v>1.01</v>
+        <v>1.003</v>
       </c>
       <c r="K81" t="n">
-        <v>1.015</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="82">
@@ -3620,28 +3620,28 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.091</v>
+        <v>0.142</v>
       </c>
       <c r="E82" t="n">
-        <v>0.061</v>
+        <v>0.046</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1351</v>
+        <v>0.0018</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.028</v>
+        <v>0.053</v>
       </c>
       <c r="H82" t="n">
-        <v>0.209</v>
+        <v>0.231</v>
       </c>
       <c r="I82" t="n">
-        <v>1.095</v>
+        <v>1.153</v>
       </c>
       <c r="J82" t="n">
-        <v>0.972</v>
+        <v>1.054</v>
       </c>
       <c r="K82" t="n">
-        <v>1.233</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="83">
@@ -3659,28 +3659,28 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.024</v>
+        <v>-0.018</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.03</v>
+        <v>-0.026</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.017</v>
+        <v>-0.01</v>
       </c>
       <c r="I83" t="n">
-        <v>0.976</v>
+        <v>0.983</v>
       </c>
       <c r="J83" t="n">
-        <v>0.97</v>
+        <v>0.975</v>
       </c>
       <c r="K83" t="n">
-        <v>0.983</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="84">
@@ -3698,28 +3698,28 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.446</v>
+        <v>-0.261</v>
       </c>
       <c r="E84" t="n">
-        <v>0.064</v>
+        <v>0.083</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.572</v>
+        <v>-0.423</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.32</v>
+        <v>-0.098</v>
       </c>
       <c r="I84" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="J84" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.655</v>
       </c>
       <c r="K84" t="n">
-        <v>0.726</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="85">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E85" t="n">
         <v>0.002</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0058</v>
+        <v>0.5714</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.008</v>
+        <v>-0.003</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="I85" t="n">
-        <v>0.995</v>
+        <v>1.001</v>
       </c>
       <c r="J85" t="n">
-        <v>0.992</v>
+        <v>0.997</v>
       </c>
       <c r="K85" t="n">
-        <v>0.999</v>
+        <v>1.005</v>
       </c>
     </row>
     <row r="86">
@@ -3776,28 +3776,28 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-1.123</v>
+        <v>-0.97</v>
       </c>
       <c r="E86" t="n">
-        <v>0.043</v>
+        <v>0.013</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.207</v>
+        <v>-0.996</v>
       </c>
       <c r="H86" t="n">
-        <v>-1.04</v>
+        <v>-0.945</v>
       </c>
       <c r="I86" t="n">
-        <v>0.325</v>
+        <v>0.379</v>
       </c>
       <c r="J86" t="n">
-        <v>0.299</v>
+        <v>0.369</v>
       </c>
       <c r="K86" t="n">
-        <v>0.354</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="87">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E87" t="n">
         <v>0.001</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="H87" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="I87" t="n">
-        <v>1.007</v>
+        <v>1.008</v>
       </c>
       <c r="J87" t="n">
-        <v>1.004</v>
+        <v>1.006</v>
       </c>
       <c r="K87" t="n">
-        <v>1.009</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="88">
@@ -3854,28 +3854,28 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.278</v>
+        <v>0.24</v>
       </c>
       <c r="E88" t="n">
-        <v>0.038</v>
+        <v>0.028</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.203</v>
+        <v>0.184</v>
       </c>
       <c r="H88" t="n">
-        <v>0.353</v>
+        <v>0.296</v>
       </c>
       <c r="I88" t="n">
-        <v>1.321</v>
+        <v>1.272</v>
       </c>
       <c r="J88" t="n">
-        <v>1.225</v>
+        <v>1.203</v>
       </c>
       <c r="K88" t="n">
-        <v>1.424</v>
+        <v>1.345</v>
       </c>
     </row>
     <row r="89">
@@ -3905,7 +3905,7 @@
         <v>-0.021</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="I89" t="n">
         <v>0.983</v>
@@ -3932,28 +3932,28 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.028</v>
+        <v>-0.095</v>
       </c>
       <c r="E90" t="n">
-        <v>0.059</v>
+        <v>0.048</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6284999999999999</v>
+        <v>0.0458</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.144</v>
+        <v>-0.189</v>
       </c>
       <c r="H90" t="n">
-        <v>0.08699999999999999</v>
+        <v>-0.002</v>
       </c>
       <c r="I90" t="n">
-        <v>0.972</v>
+        <v>0.909</v>
       </c>
       <c r="J90" t="n">
-        <v>0.866</v>
+        <v>0.828</v>
       </c>
       <c r="K90" t="n">
-        <v>1.091</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="91">
@@ -3971,28 +3971,28 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E91" t="n">
         <v>0.002</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0008</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G91" t="n">
         <v>0.003</v>
       </c>
       <c r="H91" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="I91" t="n">
-        <v>1.008</v>
+        <v>1.007</v>
       </c>
       <c r="J91" t="n">
         <v>1.003</v>
       </c>
       <c r="K91" t="n">
-        <v>1.012</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="92">
@@ -4010,28 +4010,28 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.501</v>
+        <v>-0.185</v>
       </c>
       <c r="E92" t="n">
-        <v>0.015</v>
+        <v>0.021</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.531</v>
+        <v>-0.226</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.472</v>
+        <v>-0.144</v>
       </c>
       <c r="I92" t="n">
-        <v>0.606</v>
+        <v>0.831</v>
       </c>
       <c r="J92" t="n">
-        <v>0.588</v>
+        <v>0.798</v>
       </c>
       <c r="K92" t="n">
-        <v>0.624</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="93">
@@ -4049,25 +4049,25 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="H93" t="n">
         <v>0.012</v>
       </c>
       <c r="I93" t="n">
-        <v>1.011</v>
+        <v>1.008</v>
       </c>
       <c r="J93" t="n">
-        <v>1.01</v>
+        <v>1.005</v>
       </c>
       <c r="K93" t="n">
         <v>1.012</v>
@@ -4088,28 +4088,28 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.155</v>
+        <v>0.186</v>
       </c>
       <c r="E94" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.098</v>
+        <v>0.127</v>
       </c>
       <c r="H94" t="n">
-        <v>0.212</v>
+        <v>0.245</v>
       </c>
       <c r="I94" t="n">
-        <v>1.167</v>
+        <v>1.205</v>
       </c>
       <c r="J94" t="n">
-        <v>1.103</v>
+        <v>1.136</v>
       </c>
       <c r="K94" t="n">
-        <v>1.236</v>
+        <v>1.278</v>
       </c>
     </row>
     <row r="95">
@@ -4127,28 +4127,28 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-0.018</v>
+        <v>-0.014</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.022</v>
+        <v>-0.02</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.013</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="I95" t="n">
-        <v>0.983</v>
+        <v>0.986</v>
       </c>
       <c r="J95" t="n">
-        <v>0.979</v>
+        <v>0.98</v>
       </c>
       <c r="K95" t="n">
-        <v>0.987</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="96">
@@ -4166,28 +4166,28 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-0.225</v>
+        <v>-0.124</v>
       </c>
       <c r="E96" t="n">
-        <v>0.034</v>
+        <v>0.068</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.292</v>
+        <v>-0.257</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.158</v>
+        <v>0.008</v>
       </c>
       <c r="I96" t="n">
-        <v>0.799</v>
+        <v>0.883</v>
       </c>
       <c r="J96" t="n">
-        <v>0.747</v>
+        <v>0.773</v>
       </c>
       <c r="K96" t="n">
-        <v>0.854</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="97">
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="D97" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="G97" t="n">
         <v>-0.006</v>
       </c>
-      <c r="E97" t="n">
+      <c r="H97" t="n">
         <v>0.001</v>
       </c>
-      <c r="F97" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-0.003</v>
-      </c>
       <c r="I97" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="J97" t="n">
         <v>0.994</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.992</v>
-      </c>
       <c r="K97" t="n">
-        <v>0.997</v>
+        <v>1.001</v>
       </c>
     </row>
     <row r="98">
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2.48</v>
+        <v>2.803</v>
       </c>
       <c r="E98" t="n">
         <v>0.016</v>
@@ -4253,19 +4253,19 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>2.448</v>
+        <v>2.772</v>
       </c>
       <c r="H98" t="n">
-        <v>2.511</v>
+        <v>2.835</v>
       </c>
       <c r="I98" t="n">
-        <v>11.939</v>
+        <v>16.501</v>
       </c>
       <c r="J98" t="n">
-        <v>11.569</v>
+        <v>15.996</v>
       </c>
       <c r="K98" t="n">
-        <v>12.321</v>
+        <v>17.022</v>
       </c>
     </row>
     <row r="99">
@@ -4283,25 +4283,25 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0.014</v>
       </c>
       <c r="I99" t="n">
-        <v>1.013</v>
+        <v>1.011</v>
       </c>
       <c r="J99" t="n">
-        <v>1.012</v>
+        <v>1.009</v>
       </c>
       <c r="K99" t="n">
         <v>1.014</v>
@@ -4322,28 +4322,28 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.158</v>
+        <v>0.165</v>
       </c>
       <c r="E100" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.079</v>
+        <v>0.095</v>
       </c>
       <c r="H100" t="n">
-        <v>0.237</v>
+        <v>0.234</v>
       </c>
       <c r="I100" t="n">
-        <v>1.171</v>
+        <v>1.179</v>
       </c>
       <c r="J100" t="n">
-        <v>1.082</v>
+        <v>1.1</v>
       </c>
       <c r="K100" t="n">
-        <v>1.267</v>
+        <v>1.264</v>
       </c>
     </row>
     <row r="101">
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-0.017</v>
+        <v>-0.015</v>
       </c>
       <c r="E101" t="n">
         <v>0.003</v>
@@ -4370,19 +4370,19 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.011</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="I101" t="n">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="J101" t="n">
-        <v>0.978</v>
+        <v>0.98</v>
       </c>
       <c r="K101" t="n">
-        <v>0.989</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="102">
@@ -4400,28 +4400,28 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.211</v>
+        <v>-0.172</v>
       </c>
       <c r="E102" t="n">
-        <v>0.028</v>
+        <v>0.049</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.266</v>
+        <v>-0.269</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.155</v>
+        <v>-0.076</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.842</v>
       </c>
       <c r="J102" t="n">
-        <v>0.766</v>
+        <v>0.764</v>
       </c>
       <c r="K102" t="n">
-        <v>0.856</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="103">
@@ -4439,28 +4439,28 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="E103" t="n">
         <v>0.001</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5054999999999999</v>
+        <v>0.507</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="H103" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="I103" t="n">
-        <v>0.999</v>
+        <v>1.001</v>
       </c>
       <c r="J103" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="K103" t="n">
-        <v>1.002</v>
+        <v>1.004</v>
       </c>
     </row>
   </sheetData>
